--- a/Outputs/5. Budget constrained/Grid Search/Output Files/750000/Output_19_32.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/750000/Output_19_32.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1884727.976987664</v>
+        <v>1883063.698685039</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>7319166.072938198</v>
+        <v>7319166.072938238</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673432</v>
+        <v>603248.4937673428</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9709226.967027694</v>
+        <v>9709226.967027688</v>
       </c>
     </row>
     <row r="11">
@@ -1367,25 +1367,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>250.8548160679632</v>
+        <v>250.8548160679612</v>
       </c>
       <c r="C11" t="n">
-        <v>233.3938661754902</v>
+        <v>233.3938661754882</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>222.8040160251636</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>157.3600524078771</v>
       </c>
       <c r="G11" t="n">
-        <v>259.7885606083355</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>178.8611880106349</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,25 +1418,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>13.20456790989324</v>
+        <v>13.20456790989122</v>
       </c>
       <c r="T11" t="n">
-        <v>78.93456729088041</v>
+        <v>78.93456729087839</v>
       </c>
       <c r="U11" t="n">
-        <v>119.2421657396821</v>
+        <v>119.2421657396801</v>
       </c>
       <c r="V11" t="n">
-        <v>195.8732328746175</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>217.3619431218956</v>
+        <v>217.3619431218936</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>254.3589130605342</v>
       </c>
     </row>
     <row r="12">
@@ -1449,19 +1449,19 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
-        <v>40.82947339279838</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
-        <v>147.4450655646388</v>
+        <v>15.56603996911937</v>
       </c>
       <c r="E12" t="n">
-        <v>25.76605485988358</v>
+        <v>25.76605485988156</v>
       </c>
       <c r="F12" t="n">
-        <v>145.0692123933839</v>
+        <v>13.1901867978645</v>
       </c>
       <c r="G12" t="n">
-        <v>89.68170470956632</v>
+        <v>3.963272453055607</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -1494,22 +1494,22 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>6.950563157984178</v>
       </c>
       <c r="S12" t="n">
-        <v>143.7986844789169</v>
+        <v>11.91965888339754</v>
       </c>
       <c r="T12" t="n">
-        <v>62.23473658022459</v>
+        <v>194.113762175742</v>
       </c>
       <c r="U12" t="n">
-        <v>93.96359207002089</v>
+        <v>172.7314611685321</v>
       </c>
       <c r="V12" t="n">
-        <v>100.9215615539079</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
-        <v>119.8159575654022</v>
+        <v>119.8159575654002</v>
       </c>
       <c r="X12" t="n">
         <v>205.7729852034775</v>
@@ -1525,25 +1525,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>47.95295458641993</v>
+        <v>47.95295458641792</v>
       </c>
       <c r="C13" t="n">
-        <v>35.36779550311047</v>
+        <v>35.36779550310845</v>
       </c>
       <c r="D13" t="n">
-        <v>16.73644742269499</v>
+        <v>16.73644742269298</v>
       </c>
       <c r="E13" t="n">
-        <v>14.55493705105181</v>
+        <v>14.55493705104979</v>
       </c>
       <c r="F13" t="n">
-        <v>13.54202242741388</v>
+        <v>13.54202242741187</v>
       </c>
       <c r="G13" t="n">
-        <v>34.85338208644933</v>
+        <v>34.85338208644731</v>
       </c>
       <c r="H13" t="n">
-        <v>19.1583005518382</v>
+        <v>19.15830055183618</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>120.7034321778081</v>
+        <v>75.16036235128739</v>
       </c>
       <c r="S13" t="n">
-        <v>70.2041005884068</v>
+        <v>70.20410058840478</v>
       </c>
       <c r="T13" t="n">
-        <v>90.68903030593439</v>
+        <v>90.68903030593238</v>
       </c>
       <c r="U13" t="n">
-        <v>240.7073101657718</v>
+        <v>286.2503799923186</v>
       </c>
       <c r="V13" t="n">
-        <v>120.2586177283106</v>
+        <v>120.2586177283086</v>
       </c>
       <c r="W13" t="n">
-        <v>154.6439727410736</v>
+        <v>154.6439727410716</v>
       </c>
       <c r="X13" t="n">
-        <v>93.83062979351979</v>
+        <v>93.83062979351777</v>
       </c>
       <c r="Y13" t="n">
-        <v>86.70562775657743</v>
+        <v>86.70562775657541</v>
       </c>
     </row>
     <row r="14">
@@ -1604,25 +1604,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>250.8548160679632</v>
+        <v>250.8548160679612</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>233.3938661754882</v>
       </c>
       <c r="D14" t="n">
-        <v>222.8040160251656</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>250.0513444767424</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>274.9970201461921</v>
       </c>
       <c r="G14" t="n">
-        <v>280.6179422616545</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>178.8611880106349</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,25 +1655,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>13.20456790989324</v>
+        <v>13.20456790989122</v>
       </c>
       <c r="T14" t="n">
-        <v>78.93456729088041</v>
+        <v>78.93456729087839</v>
       </c>
       <c r="U14" t="n">
-        <v>88.51250227563141</v>
+        <v>119.2421657396801</v>
       </c>
       <c r="V14" t="n">
-        <v>195.8732328746175</v>
+        <v>195.8732328746155</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>237.8520750829517</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>130.9633271179184</v>
       </c>
     </row>
     <row r="15">
@@ -1686,25 +1686,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
-        <v>172.7084989883157</v>
+        <v>40.82947339279636</v>
       </c>
       <c r="D15" t="n">
-        <v>147.4450655646388</v>
+        <v>15.56603996911937</v>
       </c>
       <c r="E15" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>145.0692123933839</v>
+        <v>13.1901867978645</v>
       </c>
       <c r="G15" t="n">
-        <v>3.963272453057625</v>
+        <v>3.963272453055607</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>37.70992210628421</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,28 +1731,28 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>6.950563157984178</v>
       </c>
       <c r="S15" t="n">
-        <v>11.91965888339956</v>
+        <v>143.7986844789169</v>
       </c>
       <c r="T15" t="n">
-        <v>62.23473658022459</v>
+        <v>141.0026056787356</v>
       </c>
       <c r="U15" t="n">
-        <v>141.9721022202453</v>
+        <v>225.8426176655383</v>
       </c>
       <c r="V15" t="n">
-        <v>232.8005871494253</v>
+        <v>100.9215615539059</v>
       </c>
       <c r="W15" t="n">
-        <v>119.8159575654022</v>
+        <v>119.8159575654002</v>
       </c>
       <c r="X15" t="n">
-        <v>73.89395960796011</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y15" t="n">
-        <v>73.803670181787</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="16">
@@ -1762,25 +1762,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>47.95295458641993</v>
+        <v>47.95295458641792</v>
       </c>
       <c r="C16" t="n">
-        <v>35.36779550311047</v>
+        <v>35.36779550310845</v>
       </c>
       <c r="D16" t="n">
-        <v>16.73644742269499</v>
+        <v>16.73644742269298</v>
       </c>
       <c r="E16" t="n">
-        <v>14.55493705105181</v>
+        <v>14.55493705104979</v>
       </c>
       <c r="F16" t="n">
-        <v>13.54202242741388</v>
+        <v>13.54202242741187</v>
       </c>
       <c r="G16" t="n">
-        <v>34.85338208644933</v>
+        <v>34.85338208644731</v>
       </c>
       <c r="H16" t="n">
-        <v>94.31866290309948</v>
+        <v>19.15830055183618</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>120.7034321778081</v>
       </c>
       <c r="S16" t="n">
-        <v>202.0831261839242</v>
+        <v>70.20410058840478</v>
       </c>
       <c r="T16" t="n">
-        <v>90.68903030593439</v>
+        <v>90.68903030593238</v>
       </c>
       <c r="U16" t="n">
-        <v>154.3713543968012</v>
+        <v>240.7073101657981</v>
       </c>
       <c r="V16" t="n">
-        <v>120.2586177283106</v>
+        <v>120.2586177283086</v>
       </c>
       <c r="W16" t="n">
-        <v>154.6439727410736</v>
+        <v>154.6439727410716</v>
       </c>
       <c r="X16" t="n">
-        <v>93.83062979351979</v>
+        <v>93.83062979351777</v>
       </c>
       <c r="Y16" t="n">
-        <v>86.70562775657743</v>
+        <v>86.70562775657541</v>
       </c>
     </row>
     <row r="17">
@@ -1841,25 +1841,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>171.9202487770847</v>
+        <v>171.9202487770828</v>
       </c>
       <c r="C17" t="n">
-        <v>154.4592988846117</v>
+        <v>154.4592988846098</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>171.1167771858659</v>
+        <v>171.116777185864</v>
       </c>
       <c r="F17" t="n">
-        <v>196.0624528553156</v>
+        <v>118.3930938360011</v>
       </c>
       <c r="G17" t="n">
-        <v>201.6833749707761</v>
+        <v>201.6833749707741</v>
       </c>
       <c r="H17" t="n">
-        <v>99.92662071975646</v>
+        <v>99.9266207197545</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1898,19 +1898,19 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>40.30759844880361</v>
+        <v>40.30759844880166</v>
       </c>
       <c r="V17" t="n">
-        <v>39.26930656442926</v>
+        <v>116.9386655837371</v>
       </c>
       <c r="W17" t="n">
-        <v>138.4273758310172</v>
+        <v>138.4273758310152</v>
       </c>
       <c r="X17" t="n">
-        <v>158.9175077920732</v>
+        <v>158.9175077920712</v>
       </c>
       <c r="Y17" t="n">
-        <v>175.4243457696577</v>
+        <v>175.4243457696558</v>
       </c>
     </row>
     <row r="18">
@@ -1920,13 +1920,13 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>166.5331836498673</v>
+        <v>118.9631229281412</v>
       </c>
       <c r="C18" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
@@ -1971,19 +1971,19 @@
         <v>6.950563157984178</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>143.7986844789169</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>194.113762175742</v>
       </c>
       <c r="U18" t="n">
-        <v>157.92634514746</v>
+        <v>225.8426176655383</v>
       </c>
       <c r="V18" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
-        <v>251.6949831609196</v>
+        <v>40.88139027452181</v>
       </c>
       <c r="X18" t="n">
         <v>205.7729852034775</v>
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2047,28 +2047,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>120.7034321778081</v>
       </c>
       <c r="S19" t="n">
-        <v>202.0831261839242</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>110.2472900813793</v>
+        <v>11.79500390556197</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2503799923186</v>
+        <v>75.4367871059208</v>
       </c>
       <c r="V19" t="n">
-        <v>41.32405043743216</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>75.70940545019516</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>7.771060465696991</v>
       </c>
     </row>
     <row r="20">
@@ -2078,25 +2078,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>171.9202487770828</v>
       </c>
       <c r="C20" t="n">
-        <v>154.4592988846117</v>
+        <v>154.4592988846098</v>
       </c>
       <c r="D20" t="n">
-        <v>134.5584882065793</v>
+        <v>143.8694487342852</v>
       </c>
       <c r="E20" t="n">
-        <v>171.1167771858659</v>
+        <v>171.116777185864</v>
       </c>
       <c r="F20" t="n">
-        <v>196.0624528553156</v>
+        <v>176.2070200724898</v>
       </c>
       <c r="G20" t="n">
-        <v>201.6833749707761</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>99.92662071975644</v>
+        <v>99.92662071975448</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2135,19 +2135,19 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>40.30759844880165</v>
       </c>
       <c r="V20" t="n">
-        <v>116.9386655837391</v>
+        <v>116.9386655837371</v>
       </c>
       <c r="W20" t="n">
-        <v>138.4273758310172</v>
+        <v>138.4273758310152</v>
       </c>
       <c r="X20" t="n">
-        <v>158.9175077920732</v>
+        <v>158.9175077920712</v>
       </c>
       <c r="Y20" t="n">
-        <v>175.4243457696577</v>
+        <v>175.4243457696558</v>
       </c>
     </row>
     <row r="21">
@@ -2157,19 +2157,19 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
@@ -2205,25 +2205,25 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>6.950563157984178</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>143.7986844789169</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>194.113762175742</v>
       </c>
       <c r="U21" t="n">
-        <v>164.8769083054443</v>
+        <v>225.8426176655383</v>
       </c>
       <c r="V21" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
-        <v>251.6949831609196</v>
+        <v>220.5482860127566</v>
       </c>
       <c r="X21" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
         <v>205.6826957773044</v>
@@ -2242,16 +2242,16 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>89.76236036385566</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.7324076819667</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2284,28 +2284,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>120.7034321778081</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>202.0831261839242</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>222.5680559014518</v>
       </c>
       <c r="U22" t="n">
-        <v>162.6999120623317</v>
+        <v>286.2503799923186</v>
       </c>
       <c r="V22" t="n">
-        <v>41.32405043743216</v>
+        <v>41.3240504374302</v>
       </c>
       <c r="W22" t="n">
-        <v>75.70940545019516</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>14.89606250264131</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>7.771060465698952</v>
+        <v>7.771060465696991</v>
       </c>
     </row>
     <row r="23">
@@ -2315,25 +2315,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>171.9202487770847</v>
+        <v>171.9202487770828</v>
       </c>
       <c r="C23" t="n">
-        <v>154.4592988846117</v>
+        <v>154.4592988846098</v>
       </c>
       <c r="D23" t="n">
-        <v>143.8694487342871</v>
+        <v>143.8694487342852</v>
       </c>
       <c r="E23" t="n">
-        <v>171.1167771858659</v>
+        <v>171.116777185864</v>
       </c>
       <c r="F23" t="n">
-        <v>196.0624528553156</v>
+        <v>196.0624528553136</v>
       </c>
       <c r="G23" t="n">
-        <v>201.6833749707761</v>
+        <v>201.6833749707741</v>
       </c>
       <c r="H23" t="n">
-        <v>99.92662071975644</v>
+        <v>99.92662071975448</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2372,19 +2372,19 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>40.30759844880362</v>
+        <v>40.30759844880165</v>
       </c>
       <c r="V23" t="n">
-        <v>116.9386655837391</v>
+        <v>116.9386655837371</v>
       </c>
       <c r="W23" t="n">
-        <v>138.4273758310172</v>
+        <v>138.4273758310152</v>
       </c>
       <c r="X23" t="n">
-        <v>158.9175077920732</v>
+        <v>158.9175077920712</v>
       </c>
       <c r="Y23" t="n">
-        <v>175.4243457696577</v>
+        <v>175.4243457696558</v>
       </c>
     </row>
     <row r="24">
@@ -2394,19 +2394,19 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>172.7084989883157</v>
+        <v>144.7517563282553</v>
       </c>
       <c r="D24" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
@@ -2445,16 +2445,16 @@
         <v>6.950563157984178</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>143.7986844789169</v>
       </c>
       <c r="T24" t="n">
         <v>194.113762175742</v>
       </c>
       <c r="U24" t="n">
-        <v>93.45069076292476</v>
+        <v>225.8426176655383</v>
       </c>
       <c r="V24" t="n">
-        <v>21.98699426302943</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
         <v>251.6949831609196</v>
@@ -2479,7 +2479,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2521,10 +2521,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>120.7034321778081</v>
       </c>
       <c r="S25" t="n">
-        <v>202.0831261839242</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>222.5680559014518</v>
@@ -2533,16 +2533,16 @@
         <v>286.2503799923186</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>41.3240504374302</v>
       </c>
       <c r="W25" t="n">
-        <v>174.2022325165185</v>
+        <v>106.9664535044262</v>
       </c>
       <c r="X25" t="n">
-        <v>14.89606250264131</v>
+        <v>14.89606250263935</v>
       </c>
       <c r="Y25" t="n">
-        <v>7.771060465698952</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2552,7 +2552,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>303.7992743726021</v>
+        <v>303.7992743726022</v>
       </c>
       <c r="C26" t="n">
         <v>286.3383244801291</v>
@@ -2561,19 +2561,19 @@
         <v>275.7484743298045</v>
       </c>
       <c r="E26" t="n">
-        <v>302.9958027813833</v>
+        <v>302.9958027813834</v>
       </c>
       <c r="F26" t="n">
         <v>327.941478450833</v>
       </c>
       <c r="G26" t="n">
-        <v>333.5624005662934</v>
+        <v>333.5624005662935</v>
       </c>
       <c r="H26" t="n">
-        <v>231.8056463152738</v>
+        <v>231.8056463152739</v>
       </c>
       <c r="I26" t="n">
-        <v>23.371887540904</v>
+        <v>23.37188754090405</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,25 +2603,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>66.14902621453211</v>
+        <v>66.14902621453217</v>
       </c>
       <c r="T26" t="n">
-        <v>131.8790255955193</v>
+        <v>131.8790255955194</v>
       </c>
       <c r="U26" t="n">
         <v>172.186624044321</v>
       </c>
       <c r="V26" t="n">
-        <v>248.8176911792564</v>
+        <v>248.8176911792565</v>
       </c>
       <c r="W26" t="n">
-        <v>270.3064014265345</v>
+        <v>270.3064014265346</v>
       </c>
       <c r="X26" t="n">
         <v>290.7965333875906</v>
       </c>
       <c r="Y26" t="n">
-        <v>307.3033713651751</v>
+        <v>307.3033713651752</v>
       </c>
     </row>
     <row r="27">
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>100.8974128910588</v>
+        <v>100.8974128910589</v>
       </c>
       <c r="C28" t="n">
-        <v>88.31225380774936</v>
+        <v>88.31225380774941</v>
       </c>
       <c r="D28" t="n">
-        <v>69.68090572733388</v>
+        <v>69.68090572733394</v>
       </c>
       <c r="E28" t="n">
-        <v>67.49939535569069</v>
+        <v>67.49939535569075</v>
       </c>
       <c r="F28" t="n">
-        <v>66.48648073205277</v>
+        <v>66.48648073205283</v>
       </c>
       <c r="G28" t="n">
-        <v>87.79784039108822</v>
+        <v>87.79784039108827</v>
       </c>
       <c r="H28" t="n">
-        <v>72.1027588564771</v>
+        <v>72.10275885647715</v>
       </c>
       <c r="I28" t="n">
-        <v>38.66722485605476</v>
+        <v>38.66722485605482</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,28 +2758,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>41.76886488692958</v>
+        <v>41.76886488692964</v>
       </c>
       <c r="S28" t="n">
         <v>123.1485588930457</v>
       </c>
       <c r="T28" t="n">
-        <v>143.6334886105733</v>
+        <v>143.6334886105734</v>
       </c>
       <c r="U28" t="n">
-        <v>207.3158127014401</v>
+        <v>207.3158127014402</v>
       </c>
       <c r="V28" t="n">
-        <v>173.2030760329495</v>
+        <v>173.2030760329496</v>
       </c>
       <c r="W28" t="n">
-        <v>207.5884310457125</v>
+        <v>207.5884310457126</v>
       </c>
       <c r="X28" t="n">
         <v>146.7750880981587</v>
       </c>
       <c r="Y28" t="n">
-        <v>139.6500860612163</v>
+        <v>139.6500860612164</v>
       </c>
     </row>
     <row r="29">
@@ -2789,7 +2789,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>303.7992743726021</v>
+        <v>303.7992743726022</v>
       </c>
       <c r="C29" t="n">
         <v>286.3383244801291</v>
@@ -2798,19 +2798,19 @@
         <v>275.7484743298045</v>
       </c>
       <c r="E29" t="n">
-        <v>302.9958027813833</v>
+        <v>302.9958027813834</v>
       </c>
       <c r="F29" t="n">
         <v>327.941478450833</v>
       </c>
       <c r="G29" t="n">
-        <v>333.5624005662934</v>
+        <v>333.5624005662935</v>
       </c>
       <c r="H29" t="n">
-        <v>231.8056463152738</v>
+        <v>231.8056463152739</v>
       </c>
       <c r="I29" t="n">
-        <v>23.371887540904</v>
+        <v>23.37188754090404</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,25 +2840,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>66.14902621453211</v>
+        <v>66.14902621453217</v>
       </c>
       <c r="T29" t="n">
-        <v>131.8790255955193</v>
+        <v>131.8790255955194</v>
       </c>
       <c r="U29" t="n">
         <v>172.186624044321</v>
       </c>
       <c r="V29" t="n">
-        <v>248.8176911792564</v>
+        <v>248.8176911792565</v>
       </c>
       <c r="W29" t="n">
-        <v>270.3064014265345</v>
+        <v>270.3064014265346</v>
       </c>
       <c r="X29" t="n">
         <v>290.7965333875906</v>
       </c>
       <c r="Y29" t="n">
-        <v>307.3033713651751</v>
+        <v>307.3033713651752</v>
       </c>
     </row>
     <row r="30">
@@ -2889,7 +2889,7 @@
         <v>97.73682805041007</v>
       </c>
       <c r="I30" t="n">
-        <v>37.70992210628421</v>
+        <v>37.7099221062842</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2916,7 +2916,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>6.950563157984178</v>
+        <v>6.950563157984163</v>
       </c>
       <c r="S30" t="n">
         <v>143.7986844789169</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>100.8974128910588</v>
+        <v>100.8974128910589</v>
       </c>
       <c r="C31" t="n">
-        <v>88.31225380774936</v>
+        <v>88.31225380774941</v>
       </c>
       <c r="D31" t="n">
-        <v>69.68090572733388</v>
+        <v>69.68090572733394</v>
       </c>
       <c r="E31" t="n">
-        <v>67.49939535569069</v>
+        <v>67.49939535569075</v>
       </c>
       <c r="F31" t="n">
-        <v>66.48648073205277</v>
+        <v>66.48648073205283</v>
       </c>
       <c r="G31" t="n">
-        <v>87.79784039108822</v>
+        <v>87.79784039108827</v>
       </c>
       <c r="H31" t="n">
-        <v>72.1027588564771</v>
+        <v>72.10275885647714</v>
       </c>
       <c r="I31" t="n">
-        <v>38.66722485605476</v>
+        <v>38.66722485605481</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>41.76886488692958</v>
+        <v>41.76886488692963</v>
       </c>
       <c r="S31" t="n">
         <v>123.1485588930457</v>
       </c>
       <c r="T31" t="n">
-        <v>143.6334886105733</v>
+        <v>143.6334886105734</v>
       </c>
       <c r="U31" t="n">
-        <v>207.3158127014401</v>
+        <v>207.3158127014402</v>
       </c>
       <c r="V31" t="n">
-        <v>173.2030760329495</v>
+        <v>173.2030760329496</v>
       </c>
       <c r="W31" t="n">
-        <v>207.5884310457125</v>
+        <v>207.5884310457126</v>
       </c>
       <c r="X31" t="n">
         <v>146.7750880981587</v>
       </c>
       <c r="Y31" t="n">
-        <v>139.6500860612163</v>
+        <v>139.6500860612164</v>
       </c>
     </row>
     <row r="32">
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>303.7992743726021</v>
+        <v>303.7992743726022</v>
       </c>
       <c r="C32" t="n">
         <v>286.3383244801291</v>
@@ -3035,19 +3035,19 @@
         <v>275.7484743298045</v>
       </c>
       <c r="E32" t="n">
-        <v>302.9958027813833</v>
+        <v>302.9958027813834</v>
       </c>
       <c r="F32" t="n">
         <v>327.941478450833</v>
       </c>
       <c r="G32" t="n">
-        <v>333.5624005662934</v>
+        <v>333.5624005662935</v>
       </c>
       <c r="H32" t="n">
-        <v>231.8056463152738</v>
+        <v>231.8056463152739</v>
       </c>
       <c r="I32" t="n">
-        <v>23.37188754090401</v>
+        <v>23.37188754090405</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>66.14902621453213</v>
+        <v>66.14902621453217</v>
       </c>
       <c r="T32" t="n">
-        <v>131.8790255955193</v>
+        <v>131.8790255955194</v>
       </c>
       <c r="U32" t="n">
         <v>172.186624044321</v>
       </c>
       <c r="V32" t="n">
-        <v>248.8176911792564</v>
+        <v>248.8176911792565</v>
       </c>
       <c r="W32" t="n">
-        <v>270.3064014265345</v>
+        <v>270.3064014265346</v>
       </c>
       <c r="X32" t="n">
         <v>290.7965333875906</v>
       </c>
       <c r="Y32" t="n">
-        <v>307.3033713651751</v>
+        <v>307.3033713651752</v>
       </c>
     </row>
     <row r="33">
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>100.8974128910588</v>
+        <v>100.8974128910589</v>
       </c>
       <c r="C34" t="n">
-        <v>88.31225380774937</v>
+        <v>88.31225380774941</v>
       </c>
       <c r="D34" t="n">
-        <v>69.68090572733389</v>
+        <v>69.68090572733394</v>
       </c>
       <c r="E34" t="n">
-        <v>67.49939535569071</v>
+        <v>67.49939535569075</v>
       </c>
       <c r="F34" t="n">
-        <v>66.48648073205278</v>
+        <v>66.48648073205283</v>
       </c>
       <c r="G34" t="n">
-        <v>87.79784039108823</v>
+        <v>87.79784039108827</v>
       </c>
       <c r="H34" t="n">
-        <v>72.10275885647711</v>
+        <v>72.10275885647715</v>
       </c>
       <c r="I34" t="n">
-        <v>38.66722485605477</v>
+        <v>38.66722485605482</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.76886488692959</v>
+        <v>41.76886488692964</v>
       </c>
       <c r="S34" t="n">
         <v>123.1485588930457</v>
       </c>
       <c r="T34" t="n">
-        <v>143.6334886105733</v>
+        <v>143.6334886105734</v>
       </c>
       <c r="U34" t="n">
-        <v>207.3158127014401</v>
+        <v>207.3158127014402</v>
       </c>
       <c r="V34" t="n">
-        <v>173.2030760329495</v>
+        <v>173.2030760329496</v>
       </c>
       <c r="W34" t="n">
-        <v>207.5884310457125</v>
+        <v>207.5884310457126</v>
       </c>
       <c r="X34" t="n">
         <v>146.7750880981587</v>
       </c>
       <c r="Y34" t="n">
-        <v>139.6500860612163</v>
+        <v>139.6500860612164</v>
       </c>
     </row>
     <row r="35">
@@ -3317,10 +3317,10 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>58.33025019024751</v>
+        <v>58.33025019024752</v>
       </c>
       <c r="U35" t="n">
-        <v>98.6378486390492</v>
+        <v>98.63784863904918</v>
       </c>
       <c r="V35" t="n">
         <v>175.2689157739846</v>
@@ -3427,7 +3427,7 @@
         <v>14.76347840247757</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3469,25 +3469,25 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>19.62423831765568</v>
       </c>
       <c r="S37" t="n">
-        <v>49.59978348777391</v>
+        <v>202.0831261839242</v>
       </c>
       <c r="T37" t="n">
         <v>70.0847132053015</v>
       </c>
       <c r="U37" t="n">
-        <v>133.7670372961683</v>
+        <v>286.2503799923186</v>
       </c>
       <c r="V37" t="n">
-        <v>123.1464086232713</v>
+        <v>99.65430062767774</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>73.22631269288689</v>
       </c>
       <c r="Y37" t="n">
         <v>66.10131065594453</v>
@@ -3554,10 +3554,10 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>58.33025019024751</v>
+        <v>58.33025019024752</v>
       </c>
       <c r="U38" t="n">
-        <v>98.6378486390492</v>
+        <v>98.63784863904918</v>
       </c>
       <c r="V38" t="n">
         <v>175.2689157739846</v>
@@ -3664,16 +3664,16 @@
         <v>14.76347840247757</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>19.62423831765576</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.7324076819667</v>
+        <v>14.24906498581643</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3709,22 +3709,22 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>49.59978348777391</v>
+        <v>202.0831261839242</v>
       </c>
       <c r="T40" t="n">
-        <v>70.0847132053015</v>
+        <v>222.5680559014518</v>
       </c>
       <c r="U40" t="n">
-        <v>133.7670372961683</v>
+        <v>286.2503799923186</v>
       </c>
       <c r="V40" t="n">
         <v>99.65430062767774</v>
       </c>
       <c r="W40" t="n">
-        <v>160.7261886313155</v>
+        <v>134.0396556404407</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>73.22631269288689</v>
       </c>
       <c r="Y40" t="n">
         <v>66.10131065594453</v>
@@ -3791,13 +3791,13 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>58.33025019024754</v>
+        <v>58.33025019024752</v>
       </c>
       <c r="U41" t="n">
-        <v>98.63784863904922</v>
+        <v>98.63784863904918</v>
       </c>
       <c r="V41" t="n">
-        <v>175.2689157739847</v>
+        <v>175.2689157739846</v>
       </c>
       <c r="W41" t="n">
         <v>196.7576260212628</v>
@@ -3806,7 +3806,7 @@
         <v>217.2477579823188</v>
       </c>
       <c r="Y41" t="n">
-        <v>233.7545959599034</v>
+        <v>233.7545959599033</v>
       </c>
     </row>
     <row r="42">
@@ -3895,10 +3895,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>27.34863748578707</v>
+        <v>27.34863748578704</v>
       </c>
       <c r="C43" t="n">
-        <v>14.7634784024776</v>
+        <v>14.76347840247757</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3910,16 +3910,16 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>14.24906498581646</v>
+        <v>14.24906498581643</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>19.62423831765576</v>
       </c>
       <c r="J43" t="n">
-        <v>4.378162588683722</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -3946,25 +3946,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>202.0831261839242</v>
+        <v>49.59978348777391</v>
       </c>
       <c r="T43" t="n">
-        <v>222.5680559014518</v>
+        <v>70.0847132053015</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2503799923186</v>
+        <v>133.7670372961683</v>
       </c>
       <c r="V43" t="n">
-        <v>99.65430062767777</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>149.2857313694126</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>73.22631269288692</v>
+        <v>73.22631269288689</v>
       </c>
       <c r="Y43" t="n">
-        <v>66.10131065594456</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -3980,7 +3980,7 @@
         <v>212.7895490748573</v>
       </c>
       <c r="D44" t="n">
-        <v>202.1996989245337</v>
+        <v>202.1996989245327</v>
       </c>
       <c r="E44" t="n">
         <v>229.4470273761115</v>
@@ -3989,7 +3989,7 @@
         <v>254.3927030455612</v>
       </c>
       <c r="G44" t="n">
-        <v>260.0136251610217</v>
+        <v>260.0136251610223</v>
       </c>
       <c r="H44" t="n">
         <v>158.256870910002</v>
@@ -4028,10 +4028,10 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>58.33025019024752</v>
+        <v>58.33025019024751</v>
       </c>
       <c r="U44" t="n">
-        <v>98.63784863904918</v>
+        <v>98.6378486390492</v>
       </c>
       <c r="V44" t="n">
         <v>175.2689157739846</v>
@@ -4074,7 +4074,7 @@
         <v>97.73682805041007</v>
       </c>
       <c r="I45" t="n">
-        <v>37.70992210628421</v>
+        <v>37.70992210628359</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4104,7 +4104,7 @@
         <v>6.950563157984178</v>
       </c>
       <c r="S45" t="n">
-        <v>143.7986844789167</v>
+        <v>143.7986844789169</v>
       </c>
       <c r="T45" t="n">
         <v>194.113762175742</v>
@@ -4180,19 +4180,19 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>19.62423831765591</v>
       </c>
       <c r="S46" t="n">
         <v>49.59978348777391</v>
       </c>
       <c r="T46" t="n">
-        <v>89.70895152295724</v>
+        <v>222.5680559014518</v>
       </c>
       <c r="U46" t="n">
         <v>286.2503799923186</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>99.65430062767774</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>710.7328804932583</v>
+        <v>651.6564358610035</v>
       </c>
       <c r="C11" t="n">
-        <v>474.9815005180158</v>
+        <v>415.9050558857629</v>
       </c>
       <c r="D11" t="n">
-        <v>474.9815005180158</v>
+        <v>190.8504942441836</v>
       </c>
       <c r="E11" t="n">
-        <v>474.9815005180158</v>
+        <v>190.8504942441836</v>
       </c>
       <c r="F11" t="n">
-        <v>474.9815005180158</v>
+        <v>31.90094635743903</v>
       </c>
       <c r="G11" t="n">
-        <v>212.5688130348486</v>
+        <v>31.90094635743903</v>
       </c>
       <c r="H11" t="n">
-        <v>31.90094635743955</v>
+        <v>31.90094635743903</v>
       </c>
       <c r="I11" t="n">
-        <v>31.90094635743955</v>
+        <v>31.90094635743903</v>
       </c>
       <c r="J11" t="n">
-        <v>88.42033145849254</v>
+        <v>88.42033145849202</v>
       </c>
       <c r="K11" t="n">
-        <v>223.8667568317975</v>
+        <v>223.866756831797</v>
       </c>
       <c r="L11" t="n">
-        <v>428.801786357536</v>
+        <v>428.8017863575354</v>
       </c>
       <c r="M11" t="n">
-        <v>688.5009309018155</v>
+        <v>688.500930901815</v>
       </c>
       <c r="N11" t="n">
-        <v>957.0160874907509</v>
+        <v>957.0160874907504</v>
       </c>
       <c r="O11" t="n">
         <v>1197.232074416834</v>
       </c>
       <c r="P11" t="n">
-        <v>1367.749860806016</v>
+        <v>1367.749860806015</v>
       </c>
       <c r="Q11" t="n">
-        <v>1595.047317871978</v>
+        <v>1595.047317871951</v>
       </c>
       <c r="R11" t="n">
-        <v>1595.047317871978</v>
+        <v>1595.047317871951</v>
       </c>
       <c r="S11" t="n">
-        <v>1581.709370488247</v>
+        <v>1581.709370488223</v>
       </c>
       <c r="T11" t="n">
-        <v>1501.977484335843</v>
+        <v>1501.97748433582</v>
       </c>
       <c r="U11" t="n">
-        <v>1381.530852275558</v>
+        <v>1381.530852275538</v>
       </c>
       <c r="V11" t="n">
-        <v>1183.679101897156</v>
+        <v>1381.530852275538</v>
       </c>
       <c r="W11" t="n">
-        <v>964.1215835922111</v>
+        <v>1161.973333970595</v>
       </c>
       <c r="X11" t="n">
-        <v>964.1215835922111</v>
+        <v>1161.973333970595</v>
       </c>
       <c r="Y11" t="n">
-        <v>964.1215835922111</v>
+        <v>905.0451389599542</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>485.2257048627637</v>
+        <v>265.4302928910116</v>
       </c>
       <c r="C12" t="n">
-        <v>443.9838125468058</v>
+        <v>90.97726360988453</v>
       </c>
       <c r="D12" t="n">
-        <v>295.0494028855545</v>
+        <v>75.25399091380436</v>
       </c>
       <c r="E12" t="n">
-        <v>269.023084845268</v>
+        <v>49.22767287351995</v>
       </c>
       <c r="F12" t="n">
-        <v>122.488526872153</v>
+        <v>35.90425186557601</v>
       </c>
       <c r="G12" t="n">
-        <v>31.90094635743955</v>
+        <v>31.90094635743903</v>
       </c>
       <c r="H12" t="n">
-        <v>31.90094635743955</v>
+        <v>31.90094635743903</v>
       </c>
       <c r="I12" t="n">
-        <v>31.90094635743955</v>
+        <v>31.90094635743903</v>
       </c>
       <c r="J12" t="n">
-        <v>46.74565797008353</v>
+        <v>46.745657970083</v>
       </c>
       <c r="K12" t="n">
-        <v>181.8168208570492</v>
+        <v>150.2724592718941</v>
       </c>
       <c r="L12" t="n">
-        <v>367.3439223632956</v>
+        <v>505.6087778149172</v>
       </c>
       <c r="M12" t="n">
-        <v>603.2021672453061</v>
+        <v>741.4670226969276</v>
       </c>
       <c r="N12" t="n">
-        <v>997.9763784186205</v>
+        <v>997.9763784186009</v>
       </c>
       <c r="O12" t="n">
-        <v>1392.750589591935</v>
+        <v>1392.750589591909</v>
       </c>
       <c r="P12" t="n">
-        <v>1543.916264124015</v>
+        <v>1543.916264123988</v>
       </c>
       <c r="Q12" t="n">
-        <v>1595.047317871978</v>
+        <v>1595.047317871951</v>
       </c>
       <c r="R12" t="n">
-        <v>1595.047317871978</v>
+        <v>1588.026547005301</v>
       </c>
       <c r="S12" t="n">
-        <v>1449.796121428627</v>
+        <v>1575.986487527121</v>
       </c>
       <c r="T12" t="n">
-        <v>1386.932751145572</v>
+        <v>1379.911980278897</v>
       </c>
       <c r="U12" t="n">
-        <v>1292.020031882925</v>
+        <v>1205.43575687634</v>
       </c>
       <c r="V12" t="n">
-        <v>1190.079060616351</v>
+        <v>970.2836486445968</v>
       </c>
       <c r="W12" t="n">
-        <v>1069.052840853318</v>
+        <v>849.2574288815663</v>
       </c>
       <c r="X12" t="n">
-        <v>861.2013406477856</v>
+        <v>641.4059286760335</v>
       </c>
       <c r="Y12" t="n">
-        <v>653.4410418828318</v>
+        <v>433.6456299110796</v>
       </c>
     </row>
     <row r="13">
@@ -5173,46 +5173,46 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>167.4695171074989</v>
+        <v>167.4695171074861</v>
       </c>
       <c r="C13" t="n">
-        <v>131.744471144761</v>
+        <v>131.7444711447503</v>
       </c>
       <c r="D13" t="n">
-        <v>114.8389686975943</v>
+        <v>114.8389686975857</v>
       </c>
       <c r="E13" t="n">
-        <v>100.1370120803703</v>
+        <v>100.1370120803636</v>
       </c>
       <c r="F13" t="n">
-        <v>86.45820154762899</v>
+        <v>86.45820154762438</v>
       </c>
       <c r="G13" t="n">
-        <v>51.25276509667006</v>
+        <v>51.2527650966675</v>
       </c>
       <c r="H13" t="n">
-        <v>31.90094635743955</v>
+        <v>31.90094635743903</v>
       </c>
       <c r="I13" t="n">
-        <v>31.90094635743955</v>
+        <v>31.90094635743903</v>
       </c>
       <c r="J13" t="n">
-        <v>31.90094635743955</v>
+        <v>31.90094635743903</v>
       </c>
       <c r="K13" t="n">
-        <v>154.6150636799329</v>
+        <v>154.6150636799324</v>
       </c>
       <c r="L13" t="n">
-        <v>367.1733194638072</v>
+        <v>367.1733194638066</v>
       </c>
       <c r="M13" t="n">
-        <v>601.6753204158035</v>
+        <v>601.675320415803</v>
       </c>
       <c r="N13" t="n">
-        <v>836.0360043447585</v>
+        <v>836.0360043447579</v>
       </c>
       <c r="O13" t="n">
-        <v>1036.489732814546</v>
+        <v>1036.489732814545</v>
       </c>
       <c r="P13" t="n">
         <v>1184.491844743244</v>
@@ -5221,28 +5221,28 @@
         <v>1203.525755333582</v>
       </c>
       <c r="R13" t="n">
-        <v>1081.60309656812</v>
+        <v>1127.606197402989</v>
       </c>
       <c r="S13" t="n">
-        <v>1010.689863650537</v>
+        <v>1056.692964485408</v>
       </c>
       <c r="T13" t="n">
-        <v>919.0847825334315</v>
+        <v>965.0878833683043</v>
       </c>
       <c r="U13" t="n">
-        <v>675.9460853962883</v>
+        <v>675.9460853962653</v>
       </c>
       <c r="V13" t="n">
-        <v>554.4727341555704</v>
+        <v>554.4727341555495</v>
       </c>
       <c r="W13" t="n">
-        <v>398.2667010837788</v>
+        <v>398.2667010837599</v>
       </c>
       <c r="X13" t="n">
-        <v>303.4882871509305</v>
+        <v>303.4882871509137</v>
       </c>
       <c r="Y13" t="n">
-        <v>215.9068449725695</v>
+        <v>215.9068449725547</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>721.0758416073942</v>
+        <v>798.0042097901891</v>
       </c>
       <c r="C14" t="n">
-        <v>721.0758416073942</v>
+        <v>562.2528298149485</v>
       </c>
       <c r="D14" t="n">
-        <v>496.0212799658127</v>
+        <v>562.2528298149485</v>
       </c>
       <c r="E14" t="n">
-        <v>496.0212799658127</v>
+        <v>309.6757141818755</v>
       </c>
       <c r="F14" t="n">
-        <v>496.0212799658127</v>
+        <v>31.90094635743903</v>
       </c>
       <c r="G14" t="n">
-        <v>212.5688130348486</v>
+        <v>31.90094635743903</v>
       </c>
       <c r="H14" t="n">
-        <v>31.90094635743955</v>
+        <v>31.90094635743903</v>
       </c>
       <c r="I14" t="n">
-        <v>31.90094635743955</v>
+        <v>31.90094635743903</v>
       </c>
       <c r="J14" t="n">
-        <v>88.42033145849254</v>
+        <v>88.42033145849202</v>
       </c>
       <c r="K14" t="n">
-        <v>371.2852043036128</v>
+        <v>371.2852043035864</v>
       </c>
       <c r="L14" t="n">
-        <v>576.2202338293513</v>
+        <v>576.2202338293249</v>
       </c>
       <c r="M14" t="n">
-        <v>835.9193783736308</v>
+        <v>835.9193783736044</v>
       </c>
       <c r="N14" t="n">
-        <v>1104.434534962566</v>
+        <v>1104.43453496254</v>
       </c>
       <c r="O14" t="n">
-        <v>1344.65052188865</v>
+        <v>1344.650521888623</v>
       </c>
       <c r="P14" t="n">
-        <v>1515.168308277831</v>
+        <v>1515.168308277804</v>
       </c>
       <c r="Q14" t="n">
-        <v>1595.047317871978</v>
+        <v>1595.047317871951</v>
       </c>
       <c r="R14" t="n">
-        <v>1595.047317871978</v>
+        <v>1595.047317871951</v>
       </c>
       <c r="S14" t="n">
-        <v>1581.709370488247</v>
+        <v>1581.709370488223</v>
       </c>
       <c r="T14" t="n">
-        <v>1501.977484335843</v>
+        <v>1501.97748433582</v>
       </c>
       <c r="U14" t="n">
-        <v>1412.570916380659</v>
+        <v>1381.530852275538</v>
       </c>
       <c r="V14" t="n">
-        <v>1214.719166002258</v>
+        <v>1183.679101897138</v>
       </c>
       <c r="W14" t="n">
-        <v>1214.719166002258</v>
+        <v>1183.679101897138</v>
       </c>
       <c r="X14" t="n">
-        <v>974.4645447063469</v>
+        <v>1183.679101897138</v>
       </c>
       <c r="Y14" t="n">
-        <v>974.4645447063469</v>
+        <v>1051.39291288914</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>703.1545341969155</v>
+        <v>265.4302928910116</v>
       </c>
       <c r="C15" t="n">
-        <v>528.7015049157885</v>
+        <v>224.1884005750557</v>
       </c>
       <c r="D15" t="n">
-        <v>379.7670952545372</v>
+        <v>208.4651278789755</v>
       </c>
       <c r="E15" t="n">
-        <v>220.5296402490817</v>
+        <v>49.22767287351995</v>
       </c>
       <c r="F15" t="n">
-        <v>73.99508227596667</v>
+        <v>35.90425186557601</v>
       </c>
       <c r="G15" t="n">
-        <v>69.99177676782764</v>
+        <v>31.90094635743903</v>
       </c>
       <c r="H15" t="n">
-        <v>69.99177676782764</v>
+        <v>31.90094635743903</v>
       </c>
       <c r="I15" t="n">
-        <v>31.90094635743955</v>
+        <v>31.90094635743903</v>
       </c>
       <c r="J15" t="n">
-        <v>46.74565797008353</v>
+        <v>46.745657970083</v>
       </c>
       <c r="K15" t="n">
-        <v>150.2724592718947</v>
+        <v>150.2724592718941</v>
       </c>
       <c r="L15" t="n">
-        <v>545.0466704452091</v>
+        <v>545.0466704452022</v>
       </c>
       <c r="M15" t="n">
-        <v>780.9049153272196</v>
+        <v>780.9049153272126</v>
       </c>
       <c r="N15" t="n">
-        <v>1175.679126500534</v>
+        <v>1175.679126500521</v>
       </c>
       <c r="O15" t="n">
-        <v>1392.750589591935</v>
+        <v>1392.750589591909</v>
       </c>
       <c r="P15" t="n">
-        <v>1543.916264124015</v>
+        <v>1543.916264123988</v>
       </c>
       <c r="Q15" t="n">
-        <v>1595.047317871978</v>
+        <v>1595.047317871951</v>
       </c>
       <c r="R15" t="n">
-        <v>1595.047317871978</v>
+        <v>1588.026547005301</v>
       </c>
       <c r="S15" t="n">
-        <v>1583.007258393796</v>
+        <v>1442.77535056195</v>
       </c>
       <c r="T15" t="n">
-        <v>1520.143888110741</v>
+        <v>1300.348476138985</v>
       </c>
       <c r="U15" t="n">
-        <v>1376.737724251907</v>
+        <v>1072.224619911168</v>
       </c>
       <c r="V15" t="n">
-        <v>1141.585616020165</v>
+        <v>970.2836486445968</v>
       </c>
       <c r="W15" t="n">
-        <v>1020.559396257132</v>
+        <v>849.2574288815663</v>
       </c>
       <c r="X15" t="n">
-        <v>945.9190330167684</v>
+        <v>641.4059286760335</v>
       </c>
       <c r="Y15" t="n">
-        <v>871.3698712169835</v>
+        <v>433.6456299110796</v>
       </c>
     </row>
     <row r="16">
@@ -5410,46 +5410,46 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>243.3890750380658</v>
+        <v>167.4695171074861</v>
       </c>
       <c r="C16" t="n">
-        <v>207.664029075328</v>
+        <v>131.7444711447503</v>
       </c>
       <c r="D16" t="n">
-        <v>190.7585266281613</v>
+        <v>114.8389686975857</v>
       </c>
       <c r="E16" t="n">
-        <v>176.0565700109372</v>
+        <v>100.1370120803636</v>
       </c>
       <c r="F16" t="n">
-        <v>162.3777594781959</v>
+        <v>86.45820154762438</v>
       </c>
       <c r="G16" t="n">
-        <v>127.172323027237</v>
+        <v>51.2527650966675</v>
       </c>
       <c r="H16" t="n">
-        <v>31.90094635743955</v>
+        <v>31.90094635743903</v>
       </c>
       <c r="I16" t="n">
-        <v>31.90094635743955</v>
+        <v>31.90094635743903</v>
       </c>
       <c r="J16" t="n">
-        <v>31.90094635743955</v>
+        <v>31.90094635743903</v>
       </c>
       <c r="K16" t="n">
-        <v>154.6150636799329</v>
+        <v>154.6150636799324</v>
       </c>
       <c r="L16" t="n">
-        <v>367.1733194638072</v>
+        <v>367.1733194638066</v>
       </c>
       <c r="M16" t="n">
-        <v>601.6753204158035</v>
+        <v>601.675320415803</v>
       </c>
       <c r="N16" t="n">
-        <v>836.0360043447585</v>
+        <v>836.0360043447579</v>
       </c>
       <c r="O16" t="n">
-        <v>1036.489732814546</v>
+        <v>1036.489732814545</v>
       </c>
       <c r="P16" t="n">
         <v>1184.491844743244</v>
@@ -5458,28 +5458,28 @@
         <v>1203.525755333582</v>
       </c>
       <c r="R16" t="n">
-        <v>1203.525755333582</v>
+        <v>1081.603096568119</v>
       </c>
       <c r="S16" t="n">
-        <v>999.4013854508306</v>
+        <v>1010.689863650539</v>
       </c>
       <c r="T16" t="n">
-        <v>907.7963043337252</v>
+        <v>919.0847825334351</v>
       </c>
       <c r="U16" t="n">
-        <v>751.8656433268552</v>
+        <v>675.9460853962653</v>
       </c>
       <c r="V16" t="n">
-        <v>630.3922920861373</v>
+        <v>554.4727341555495</v>
       </c>
       <c r="W16" t="n">
-        <v>474.1862590143458</v>
+        <v>398.2667010837599</v>
       </c>
       <c r="X16" t="n">
-        <v>379.4078450814975</v>
+        <v>303.4882871509137</v>
       </c>
       <c r="Y16" t="n">
-        <v>291.8264029031365</v>
+        <v>215.9068449725547</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>863.4651126365568</v>
+        <v>785.0112146372405</v>
       </c>
       <c r="C17" t="n">
-        <v>707.4456188137167</v>
+        <v>628.9917208144024</v>
       </c>
       <c r="D17" t="n">
-        <v>707.4456188137167</v>
+        <v>628.9917208144024</v>
       </c>
       <c r="E17" t="n">
-        <v>534.6003893330439</v>
+        <v>456.1464913337317</v>
       </c>
       <c r="F17" t="n">
-        <v>336.5575076610078</v>
+        <v>336.5575076610032</v>
       </c>
       <c r="G17" t="n">
-        <v>132.8369268824461</v>
+        <v>132.8369268824435</v>
       </c>
       <c r="H17" t="n">
-        <v>31.90094635743955</v>
+        <v>31.90094635743903</v>
       </c>
       <c r="I17" t="n">
-        <v>31.90094635743955</v>
+        <v>31.90094635743903</v>
       </c>
       <c r="J17" t="n">
-        <v>88.42033145849254</v>
+        <v>88.42033145849202</v>
       </c>
       <c r="K17" t="n">
-        <v>223.8667568317975</v>
+        <v>371.2852043035864</v>
       </c>
       <c r="L17" t="n">
-        <v>428.801786357536</v>
+        <v>576.2202338293249</v>
       </c>
       <c r="M17" t="n">
-        <v>688.5009309018155</v>
+        <v>835.9193783736044</v>
       </c>
       <c r="N17" t="n">
-        <v>957.0160874907509</v>
+        <v>1104.43453496254</v>
       </c>
       <c r="O17" t="n">
-        <v>1197.232074416834</v>
+        <v>1344.650521888623</v>
       </c>
       <c r="P17" t="n">
-        <v>1367.749860806016</v>
+        <v>1515.168308277804</v>
       </c>
       <c r="Q17" t="n">
-        <v>1595.047317871978</v>
+        <v>1595.047317871951</v>
       </c>
       <c r="R17" t="n">
-        <v>1595.047317871978</v>
+        <v>1595.047317871951</v>
       </c>
       <c r="S17" t="n">
-        <v>1595.047317871978</v>
+        <v>1595.047317871951</v>
       </c>
       <c r="T17" t="n">
-        <v>1595.047317871976</v>
+        <v>1595.047317871951</v>
       </c>
       <c r="U17" t="n">
-        <v>1554.332571964093</v>
+        <v>1554.332571964071</v>
       </c>
       <c r="V17" t="n">
-        <v>1514.666605737398</v>
+        <v>1436.212707738074</v>
       </c>
       <c r="W17" t="n">
-        <v>1374.840973584855</v>
+        <v>1296.387075585533</v>
       </c>
       <c r="X17" t="n">
-        <v>1214.318238441347</v>
+        <v>1135.864340442027</v>
       </c>
       <c r="Y17" t="n">
-        <v>1037.121929583107</v>
+        <v>958.6680315837888</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>355.2883852998178</v>
+        <v>206.3539756385661</v>
       </c>
       <c r="C18" t="n">
-        <v>180.8353560186908</v>
+        <v>31.90094635743903</v>
       </c>
       <c r="D18" t="n">
-        <v>31.90094635743955</v>
+        <v>31.90094635743903</v>
       </c>
       <c r="E18" t="n">
-        <v>31.90094635743955</v>
+        <v>31.90094635743903</v>
       </c>
       <c r="F18" t="n">
-        <v>31.90094635743955</v>
+        <v>31.90094635743903</v>
       </c>
       <c r="G18" t="n">
-        <v>31.90094635743955</v>
+        <v>31.90094635743903</v>
       </c>
       <c r="H18" t="n">
-        <v>31.90094635743955</v>
+        <v>31.90094635743903</v>
       </c>
       <c r="I18" t="n">
-        <v>31.90094635743955</v>
+        <v>31.90094635743903</v>
       </c>
       <c r="J18" t="n">
-        <v>137.0723494214093</v>
+        <v>171.5757829570878</v>
       </c>
       <c r="K18" t="n">
-        <v>502.4197353656733</v>
+        <v>275.1025842588989</v>
       </c>
       <c r="L18" t="n">
-        <v>687.9468368719197</v>
+        <v>460.6296857651453</v>
       </c>
       <c r="M18" t="n">
-        <v>923.8050817539302</v>
+        <v>696.4879306471557</v>
       </c>
       <c r="N18" t="n">
-        <v>1180.314437475603</v>
+        <v>952.997286368829</v>
       </c>
       <c r="O18" t="n">
-        <v>1392.750589591935</v>
+        <v>1347.771497542137</v>
       </c>
       <c r="P18" t="n">
-        <v>1543.916264124015</v>
+        <v>1543.916264123988</v>
       </c>
       <c r="Q18" t="n">
-        <v>1595.047317871978</v>
+        <v>1595.047317871951</v>
       </c>
       <c r="R18" t="n">
-        <v>1588.026547005327</v>
+        <v>1588.026547005301</v>
       </c>
       <c r="S18" t="n">
-        <v>1588.026547005327</v>
+        <v>1442.77535056195</v>
       </c>
       <c r="T18" t="n">
-        <v>1588.026547005327</v>
+        <v>1246.700843313726</v>
       </c>
       <c r="U18" t="n">
-        <v>1428.504986250317</v>
+        <v>1018.57698708591</v>
       </c>
       <c r="V18" t="n">
-        <v>1193.352878018574</v>
+        <v>783.424878854167</v>
       </c>
       <c r="W18" t="n">
-        <v>939.1155212903725</v>
+        <v>742.1305452435389</v>
       </c>
       <c r="X18" t="n">
-        <v>731.2640210848397</v>
+        <v>534.2790450380061</v>
       </c>
       <c r="Y18" t="n">
-        <v>523.5037223198858</v>
+        <v>326.5187462730522</v>
       </c>
     </row>
     <row r="19">
@@ -5647,46 +5647,46 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>31.90094635743955</v>
+        <v>31.90094635743903</v>
       </c>
       <c r="C19" t="n">
-        <v>31.90094635743955</v>
+        <v>31.90094635743903</v>
       </c>
       <c r="D19" t="n">
-        <v>31.90094635743955</v>
+        <v>31.90094635743903</v>
       </c>
       <c r="E19" t="n">
-        <v>31.90094635743955</v>
+        <v>31.90094635743903</v>
       </c>
       <c r="F19" t="n">
-        <v>31.90094635743955</v>
+        <v>31.90094635743903</v>
       </c>
       <c r="G19" t="n">
-        <v>31.90094635743955</v>
+        <v>31.90094635743903</v>
       </c>
       <c r="H19" t="n">
-        <v>31.90094635743955</v>
+        <v>31.90094635743903</v>
       </c>
       <c r="I19" t="n">
-        <v>31.90094635743955</v>
+        <v>31.90094635743903</v>
       </c>
       <c r="J19" t="n">
-        <v>31.90094635743955</v>
+        <v>31.90094635743903</v>
       </c>
       <c r="K19" t="n">
-        <v>154.6150636799329</v>
+        <v>154.6150636799324</v>
       </c>
       <c r="L19" t="n">
-        <v>367.1733194638072</v>
+        <v>367.1733194638066</v>
       </c>
       <c r="M19" t="n">
-        <v>601.6753204158035</v>
+        <v>601.675320415803</v>
       </c>
       <c r="N19" t="n">
-        <v>836.0360043447585</v>
+        <v>836.0360043447579</v>
       </c>
       <c r="O19" t="n">
-        <v>1036.489732814546</v>
+        <v>1036.489732814545</v>
       </c>
       <c r="P19" t="n">
         <v>1184.491844743244</v>
@@ -5695,28 +5695,28 @@
         <v>1203.525755333582</v>
       </c>
       <c r="R19" t="n">
-        <v>1203.525755333582</v>
+        <v>1081.603096568119</v>
       </c>
       <c r="S19" t="n">
-        <v>999.4013854508306</v>
+        <v>1081.603096568119</v>
       </c>
       <c r="T19" t="n">
-        <v>888.0404863787303</v>
+        <v>1069.688951208966</v>
       </c>
       <c r="U19" t="n">
-        <v>598.8986884066913</v>
+        <v>993.4901763545</v>
       </c>
       <c r="V19" t="n">
-        <v>557.1572233183761</v>
+        <v>738.8056881486132</v>
       </c>
       <c r="W19" t="n">
-        <v>480.683076398987</v>
+        <v>449.3885181116526</v>
       </c>
       <c r="X19" t="n">
-        <v>252.6935255009697</v>
+        <v>221.3989672136353</v>
       </c>
       <c r="Y19" t="n">
-        <v>31.90094635743955</v>
+        <v>213.5494111876787</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>999.3827774916874</v>
+        <v>785.0112146372409</v>
       </c>
       <c r="C20" t="n">
-        <v>843.3632836688473</v>
+        <v>628.9917208144027</v>
       </c>
       <c r="D20" t="n">
-        <v>707.4456188137165</v>
+        <v>483.6690453252257</v>
       </c>
       <c r="E20" t="n">
-        <v>534.6003893330437</v>
+        <v>310.823815844555</v>
       </c>
       <c r="F20" t="n">
-        <v>336.5575076610077</v>
+        <v>132.8369268824436</v>
       </c>
       <c r="G20" t="n">
-        <v>132.8369268824461</v>
+        <v>132.8369268824436</v>
       </c>
       <c r="H20" t="n">
-        <v>31.90094635743955</v>
+        <v>31.90094635743903</v>
       </c>
       <c r="I20" t="n">
-        <v>31.90094635743955</v>
+        <v>31.90094635743903</v>
       </c>
       <c r="J20" t="n">
-        <v>88.42033145849254</v>
+        <v>88.42033145849202</v>
       </c>
       <c r="K20" t="n">
-        <v>223.8667568317975</v>
+        <v>223.866756831797</v>
       </c>
       <c r="L20" t="n">
-        <v>428.801786357536</v>
+        <v>428.8017863575354</v>
       </c>
       <c r="M20" t="n">
-        <v>809.8043561411131</v>
+        <v>688.500930901815</v>
       </c>
       <c r="N20" t="n">
-        <v>1078.319512730048</v>
+        <v>957.0160874907504</v>
       </c>
       <c r="O20" t="n">
-        <v>1318.535499656132</v>
+        <v>1197.232074416834</v>
       </c>
       <c r="P20" t="n">
-        <v>1489.053286045313</v>
+        <v>1367.749860806015</v>
       </c>
       <c r="Q20" t="n">
-        <v>1568.93229563946</v>
+        <v>1568.932295639434</v>
       </c>
       <c r="R20" t="n">
-        <v>1595.047317871978</v>
+        <v>1595.047317871951</v>
       </c>
       <c r="S20" t="n">
-        <v>1595.047317871978</v>
+        <v>1595.047317871951</v>
       </c>
       <c r="T20" t="n">
-        <v>1595.047317871978</v>
+        <v>1595.047317871951</v>
       </c>
       <c r="U20" t="n">
-        <v>1595.047317871978</v>
+        <v>1554.332571964071</v>
       </c>
       <c r="V20" t="n">
-        <v>1476.927453645978</v>
+        <v>1436.212707738074</v>
       </c>
       <c r="W20" t="n">
-        <v>1337.101821493436</v>
+        <v>1296.387075585534</v>
       </c>
       <c r="X20" t="n">
-        <v>1176.579086349928</v>
+        <v>1135.864340442027</v>
       </c>
       <c r="Y20" t="n">
-        <v>999.3827774916874</v>
+        <v>958.6680315837891</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5805,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>355.2883852998178</v>
+        <v>352.8885336116811</v>
       </c>
       <c r="C21" t="n">
-        <v>180.8353560186908</v>
+        <v>178.4355043305541</v>
       </c>
       <c r="D21" t="n">
-        <v>31.90094635743955</v>
+        <v>178.4355043305541</v>
       </c>
       <c r="E21" t="n">
-        <v>31.90094635743955</v>
+        <v>178.4355043305541</v>
       </c>
       <c r="F21" t="n">
-        <v>31.90094635743955</v>
+        <v>31.90094635743903</v>
       </c>
       <c r="G21" t="n">
-        <v>31.90094635743955</v>
+        <v>31.90094635743903</v>
       </c>
       <c r="H21" t="n">
-        <v>31.90094635743955</v>
+        <v>31.90094635743903</v>
       </c>
       <c r="I21" t="n">
-        <v>31.90094635743955</v>
+        <v>31.90094635743903</v>
       </c>
       <c r="J21" t="n">
-        <v>46.74565797008353</v>
+        <v>171.5757829570878</v>
       </c>
       <c r="K21" t="n">
-        <v>258.8111987244386</v>
+        <v>275.1025842588989</v>
       </c>
       <c r="L21" t="n">
-        <v>444.3383002306849</v>
+        <v>460.6296857651453</v>
       </c>
       <c r="M21" t="n">
-        <v>680.1965451126954</v>
+        <v>855.4038969384533</v>
       </c>
       <c r="N21" t="n">
-        <v>936.7059008343687</v>
+        <v>1111.913252660127</v>
       </c>
       <c r="O21" t="n">
-        <v>1149.1420529507</v>
+        <v>1324.349404776458</v>
       </c>
       <c r="P21" t="n">
-        <v>1543.916264124015</v>
+        <v>1475.515079308538</v>
       </c>
       <c r="Q21" t="n">
-        <v>1595.047317871978</v>
+        <v>1595.047317871951</v>
       </c>
       <c r="R21" t="n">
-        <v>1595.047317871978</v>
+        <v>1588.026547005301</v>
       </c>
       <c r="S21" t="n">
-        <v>1595.047317871978</v>
+        <v>1442.77535056195</v>
       </c>
       <c r="T21" t="n">
-        <v>1595.047317871978</v>
+        <v>1246.700843313726</v>
       </c>
       <c r="U21" t="n">
-        <v>1428.504986250317</v>
+        <v>1018.57698708591</v>
       </c>
       <c r="V21" t="n">
-        <v>1193.352878018574</v>
+        <v>783.424878854167</v>
       </c>
       <c r="W21" t="n">
-        <v>939.1155212903725</v>
+        <v>560.648832376635</v>
       </c>
       <c r="X21" t="n">
-        <v>731.2640210848397</v>
+        <v>560.648832376635</v>
       </c>
       <c r="Y21" t="n">
-        <v>523.5037223198858</v>
+        <v>352.8885336116811</v>
       </c>
     </row>
     <row r="22">
@@ -5884,46 +5884,46 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>347.2074672714779</v>
+        <v>122.5699972300205</v>
       </c>
       <c r="C22" t="n">
-        <v>347.2074672714779</v>
+        <v>122.5699972300205</v>
       </c>
       <c r="D22" t="n">
-        <v>347.2074672714779</v>
+        <v>31.90094635743903</v>
       </c>
       <c r="E22" t="n">
-        <v>347.2074672714779</v>
+        <v>31.90094635743903</v>
       </c>
       <c r="F22" t="n">
-        <v>200.3175197735675</v>
+        <v>31.90094635743903</v>
       </c>
       <c r="G22" t="n">
-        <v>31.90094635743955</v>
+        <v>31.90094635743903</v>
       </c>
       <c r="H22" t="n">
-        <v>31.90094635743955</v>
+        <v>31.90094635743903</v>
       </c>
       <c r="I22" t="n">
-        <v>31.90094635743955</v>
+        <v>31.90094635743903</v>
       </c>
       <c r="J22" t="n">
-        <v>31.90094635743955</v>
+        <v>31.90094635743903</v>
       </c>
       <c r="K22" t="n">
-        <v>154.6150636799329</v>
+        <v>154.6150636799324</v>
       </c>
       <c r="L22" t="n">
-        <v>367.1733194638072</v>
+        <v>367.1733194638066</v>
       </c>
       <c r="M22" t="n">
-        <v>601.6753204158035</v>
+        <v>601.675320415803</v>
       </c>
       <c r="N22" t="n">
-        <v>836.0360043447585</v>
+        <v>836.0360043447579</v>
       </c>
       <c r="O22" t="n">
-        <v>1036.489732814546</v>
+        <v>1036.489732814545</v>
       </c>
       <c r="P22" t="n">
         <v>1184.491844743244</v>
@@ -5932,28 +5932,28 @@
         <v>1203.525755333582</v>
       </c>
       <c r="R22" t="n">
-        <v>1081.60309656812</v>
+        <v>1203.525755333582</v>
       </c>
       <c r="S22" t="n">
-        <v>877.4787266853679</v>
+        <v>1203.525755333582</v>
       </c>
       <c r="T22" t="n">
-        <v>652.6625086030933</v>
+        <v>978.7095372513073</v>
       </c>
       <c r="U22" t="n">
-        <v>488.3191630855865</v>
+        <v>689.5677392792684</v>
       </c>
       <c r="V22" t="n">
-        <v>446.5776979972712</v>
+        <v>647.826274190955</v>
       </c>
       <c r="W22" t="n">
-        <v>370.1035510778822</v>
+        <v>358.4091041539944</v>
       </c>
       <c r="X22" t="n">
-        <v>355.0570232974364</v>
+        <v>130.4195532559771</v>
       </c>
       <c r="Y22" t="n">
-        <v>347.2074672714779</v>
+        <v>122.5699972300205</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1013.354656972439</v>
+        <v>1013.354656972427</v>
       </c>
       <c r="C23" t="n">
-        <v>857.3351631495991</v>
+        <v>857.3351631495884</v>
       </c>
       <c r="D23" t="n">
-        <v>712.0124876604202</v>
+        <v>712.0124876604115</v>
       </c>
       <c r="E23" t="n">
-        <v>539.1672581797475</v>
+        <v>539.1672581797408</v>
       </c>
       <c r="F23" t="n">
-        <v>341.1243765077115</v>
+        <v>341.1243765077068</v>
       </c>
       <c r="G23" t="n">
-        <v>137.4037957291497</v>
+        <v>137.4037957291473</v>
       </c>
       <c r="H23" t="n">
-        <v>36.46781520414324</v>
+        <v>36.46781520414275</v>
       </c>
       <c r="I23" t="n">
-        <v>36.46781520414324</v>
+        <v>36.46781520414275</v>
       </c>
       <c r="J23" t="n">
-        <v>253.9903805121862</v>
+        <v>92.98720030519573</v>
       </c>
       <c r="K23" t="n">
-        <v>389.4368058854911</v>
+        <v>544.2764134564621</v>
       </c>
       <c r="L23" t="n">
-        <v>594.3718354112297</v>
+        <v>749.2114429822007</v>
       </c>
       <c r="M23" t="n">
-        <v>854.0709799555092</v>
+        <v>1008.91058752648</v>
       </c>
       <c r="N23" t="n">
-        <v>1122.586136544445</v>
+        <v>1277.425744115415</v>
       </c>
       <c r="O23" t="n">
-        <v>1362.802123470528</v>
+        <v>1517.641731041499</v>
       </c>
       <c r="P23" t="n">
-        <v>1533.319909859709</v>
+        <v>1688.15951743068</v>
       </c>
       <c r="Q23" t="n">
-        <v>1823.390760207162</v>
+        <v>1823.390760207137</v>
       </c>
       <c r="R23" t="n">
-        <v>1823.390760207162</v>
+        <v>1823.390760207137</v>
       </c>
       <c r="S23" t="n">
-        <v>1823.390760207162</v>
+        <v>1823.390760207137</v>
       </c>
       <c r="T23" t="n">
-        <v>1823.390760207162</v>
+        <v>1823.390760207137</v>
       </c>
       <c r="U23" t="n">
-        <v>1782.67601429928</v>
+        <v>1782.676014299257</v>
       </c>
       <c r="V23" t="n">
-        <v>1664.55615007328</v>
+        <v>1664.55615007326</v>
       </c>
       <c r="W23" t="n">
-        <v>1524.730517920738</v>
+        <v>1524.730517920719</v>
       </c>
       <c r="X23" t="n">
-        <v>1364.20778277723</v>
+        <v>1364.207782777213</v>
       </c>
       <c r="Y23" t="n">
-        <v>1187.011473918989</v>
+        <v>1187.011473918975</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6042,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>665.6272671250921</v>
+        <v>341.9191654906642</v>
       </c>
       <c r="C24" t="n">
-        <v>491.174237843965</v>
+        <v>195.7052702095982</v>
       </c>
       <c r="D24" t="n">
-        <v>342.2398281827138</v>
+        <v>195.7052702095982</v>
       </c>
       <c r="E24" t="n">
-        <v>183.0023731772583</v>
+        <v>36.46781520414275</v>
       </c>
       <c r="F24" t="n">
-        <v>36.46781520414324</v>
+        <v>36.46781520414275</v>
       </c>
       <c r="G24" t="n">
-        <v>36.46781520414324</v>
+        <v>36.46781520414275</v>
       </c>
       <c r="H24" t="n">
-        <v>36.46781520414324</v>
+        <v>36.46781520414275</v>
       </c>
       <c r="I24" t="n">
-        <v>36.46781520414324</v>
+        <v>36.46781520414275</v>
       </c>
       <c r="J24" t="n">
-        <v>176.142651803792</v>
+        <v>132.3329803502415</v>
       </c>
       <c r="K24" t="n">
-        <v>279.6694531056031</v>
+        <v>235.8597816520526</v>
       </c>
       <c r="L24" t="n">
-        <v>465.1965546118495</v>
+        <v>421.386883158299</v>
       </c>
       <c r="M24" t="n">
-        <v>701.0547994938599</v>
+        <v>657.2451280403095</v>
       </c>
       <c r="N24" t="n">
-        <v>957.5641552155332</v>
+        <v>1108.534341191576</v>
       </c>
       <c r="O24" t="n">
-        <v>1170.000307331865</v>
+        <v>1320.970493307908</v>
       </c>
       <c r="P24" t="n">
-        <v>1621.289520483137</v>
+        <v>1772.259706459174</v>
       </c>
       <c r="Q24" t="n">
-        <v>1823.390760207162</v>
+        <v>1823.390760207137</v>
       </c>
       <c r="R24" t="n">
-        <v>1816.369989340511</v>
+        <v>1816.369989340486</v>
       </c>
       <c r="S24" t="n">
-        <v>1816.369989340511</v>
+        <v>1671.118792897136</v>
       </c>
       <c r="T24" t="n">
-        <v>1620.295482092287</v>
+        <v>1475.044285648912</v>
       </c>
       <c r="U24" t="n">
-        <v>1525.900844958019</v>
+        <v>1246.920429421095</v>
       </c>
       <c r="V24" t="n">
-        <v>1503.691759843848</v>
+        <v>1011.768321189352</v>
       </c>
       <c r="W24" t="n">
-        <v>1249.454403115647</v>
+        <v>757.5309644611509</v>
       </c>
       <c r="X24" t="n">
-        <v>1041.602902910114</v>
+        <v>549.6794642556181</v>
       </c>
       <c r="Y24" t="n">
-        <v>833.8426041451601</v>
+        <v>341.9191654906642</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>36.46781520414324</v>
+        <v>186.5844546164785</v>
       </c>
       <c r="C25" t="n">
-        <v>36.46781520414324</v>
+        <v>186.5844546164785</v>
       </c>
       <c r="D25" t="n">
-        <v>36.46781520414324</v>
+        <v>36.46781520414275</v>
       </c>
       <c r="E25" t="n">
-        <v>36.46781520414324</v>
+        <v>36.46781520414275</v>
       </c>
       <c r="F25" t="n">
-        <v>36.46781520414324</v>
+        <v>36.46781520414275</v>
       </c>
       <c r="G25" t="n">
-        <v>36.46781520414324</v>
+        <v>36.46781520414275</v>
       </c>
       <c r="H25" t="n">
-        <v>36.46781520414324</v>
+        <v>36.46781520414275</v>
       </c>
       <c r="I25" t="n">
-        <v>36.46781520414324</v>
+        <v>36.46781520414275</v>
       </c>
       <c r="J25" t="n">
-        <v>36.46781520414324</v>
+        <v>36.46781520414275</v>
       </c>
       <c r="K25" t="n">
-        <v>159.1819325266366</v>
+        <v>159.1819325266361</v>
       </c>
       <c r="L25" t="n">
-        <v>371.7401883105108</v>
+        <v>371.7401883105103</v>
       </c>
       <c r="M25" t="n">
-        <v>606.2421892625072</v>
+        <v>606.2421892625067</v>
       </c>
       <c r="N25" t="n">
-        <v>840.6028731914621</v>
+        <v>840.6028731914616</v>
       </c>
       <c r="O25" t="n">
         <v>1041.056601661249</v>
       </c>
       <c r="P25" t="n">
-        <v>1189.058713589948</v>
+        <v>1189.058713589947</v>
       </c>
       <c r="Q25" t="n">
         <v>1208.092624180286</v>
       </c>
       <c r="R25" t="n">
-        <v>1208.092624180286</v>
+        <v>1086.169965414823</v>
       </c>
       <c r="S25" t="n">
-        <v>1003.968254297534</v>
+        <v>1086.169965414823</v>
       </c>
       <c r="T25" t="n">
-        <v>779.1520362152598</v>
+        <v>861.3537473325483</v>
       </c>
       <c r="U25" t="n">
-        <v>490.0102382432208</v>
+        <v>572.2119493605094</v>
       </c>
       <c r="V25" t="n">
-        <v>235.325750037334</v>
+        <v>530.470484272196</v>
       </c>
       <c r="W25" t="n">
-        <v>59.36389901054754</v>
+        <v>422.4235615404523</v>
       </c>
       <c r="X25" t="n">
-        <v>44.31737123010177</v>
+        <v>407.3770337600085</v>
       </c>
       <c r="Y25" t="n">
-        <v>36.46781520414324</v>
+        <v>186.5844546164785</v>
       </c>
     </row>
     <row r="26">
@@ -6200,61 +6200,61 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1873.416587730708</v>
+        <v>1873.416587730707</v>
       </c>
       <c r="C26" t="n">
-        <v>1584.185956942699</v>
+        <v>1584.185956942698</v>
       </c>
       <c r="D26" t="n">
-        <v>1305.652144488351</v>
+        <v>1305.65214448835</v>
       </c>
       <c r="E26" t="n">
-        <v>999.595778042509</v>
+        <v>999.5957780425078</v>
       </c>
       <c r="F26" t="n">
-        <v>668.3417594053037</v>
+        <v>668.3417594053028</v>
       </c>
       <c r="G26" t="n">
-        <v>331.4100416615721</v>
+        <v>331.410041661572</v>
       </c>
       <c r="H26" t="n">
-        <v>97.26292417139659</v>
+        <v>97.26292417139666</v>
       </c>
       <c r="I26" t="n">
-        <v>73.65495695836225</v>
+        <v>73.65495695836226</v>
       </c>
       <c r="J26" t="n">
-        <v>297.5799910797683</v>
+        <v>130.1743420594153</v>
       </c>
       <c r="K26" t="n">
-        <v>753.9303748985263</v>
+        <v>586.5247258781733</v>
       </c>
       <c r="L26" t="n">
-        <v>958.8654044242649</v>
+        <v>1204.944357808858</v>
       </c>
       <c r="M26" t="n">
-        <v>1663.582947126449</v>
+        <v>1558.766689726192</v>
       </c>
       <c r="N26" t="n">
-        <v>2365.071558883248</v>
+        <v>2260.255301482992</v>
       </c>
       <c r="O26" t="n">
-        <v>2982.27972525945</v>
+        <v>2877.463467859194</v>
       </c>
       <c r="P26" t="n">
-        <v>3471.378232738399</v>
+        <v>3366.561975338143</v>
       </c>
       <c r="Q26" t="n">
         <v>3656.632825685595</v>
       </c>
       <c r="R26" t="n">
-        <v>3682.747847918112</v>
+        <v>3682.747847918113</v>
       </c>
       <c r="S26" t="n">
-        <v>3615.930649721615</v>
+        <v>3615.930649721616</v>
       </c>
       <c r="T26" t="n">
-        <v>3482.719512756444</v>
+        <v>3482.719512756445</v>
       </c>
       <c r="U26" t="n">
         <v>3308.793629883393</v>
@@ -6297,31 +6297,31 @@
         <v>210.4698561065383</v>
       </c>
       <c r="H27" t="n">
-        <v>111.7457873687503</v>
+        <v>111.7457873687504</v>
       </c>
       <c r="I27" t="n">
-        <v>73.65495695836225</v>
+        <v>73.65495695836226</v>
       </c>
       <c r="J27" t="n">
-        <v>213.329793558011</v>
+        <v>88.49966857100624</v>
       </c>
       <c r="K27" t="n">
-        <v>578.677179502275</v>
+        <v>192.0264698728174</v>
       </c>
       <c r="L27" t="n">
-        <v>1131.336222858946</v>
+        <v>744.6855132294884</v>
       </c>
       <c r="M27" t="n">
-        <v>1367.194467740956</v>
+        <v>1441.591771223999</v>
       </c>
       <c r="N27" t="n">
-        <v>1688.543146028933</v>
+        <v>1698.101126945672</v>
       </c>
       <c r="O27" t="n">
-        <v>1900.979298145265</v>
+        <v>2300.460975145966</v>
       </c>
       <c r="P27" t="n">
-        <v>2367.423113630882</v>
+        <v>2451.626649678045</v>
       </c>
       <c r="Q27" t="n">
         <v>2626.530682237336</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>569.1568354699247</v>
+        <v>569.1568354699251</v>
       </c>
       <c r="C28" t="n">
-        <v>479.9525386944203</v>
+        <v>479.9525386944206</v>
       </c>
       <c r="D28" t="n">
-        <v>409.5677854344871</v>
+        <v>409.5677854344873</v>
       </c>
       <c r="E28" t="n">
-        <v>341.3865780044965</v>
+        <v>341.3865780044967</v>
       </c>
       <c r="F28" t="n">
-        <v>274.2285166589886</v>
+        <v>274.2285166589888</v>
       </c>
       <c r="G28" t="n">
-        <v>185.5438293952631</v>
+        <v>185.5438293952633</v>
       </c>
       <c r="H28" t="n">
-        <v>112.712759843266</v>
+        <v>112.7127598432661</v>
       </c>
       <c r="I28" t="n">
-        <v>73.65495695836225</v>
+        <v>73.65495695836226</v>
       </c>
       <c r="J28" t="n">
-        <v>147.4657976135351</v>
+        <v>147.4657976135356</v>
       </c>
       <c r="K28" t="n">
-        <v>348.3251365539982</v>
+        <v>348.3251365539986</v>
       </c>
       <c r="L28" t="n">
-        <v>639.028613955842</v>
+        <v>639.0286139558425</v>
       </c>
       <c r="M28" t="n">
-        <v>951.6758365258081</v>
+        <v>951.6758365258086</v>
       </c>
       <c r="N28" t="n">
         <v>1264.181742072733</v>
       </c>
       <c r="O28" t="n">
-        <v>1542.780692160489</v>
+        <v>1542.78069216049</v>
       </c>
       <c r="P28" t="n">
         <v>1768.928025707158</v>
       </c>
       <c r="Q28" t="n">
-        <v>1866.107157915465</v>
+        <v>1866.107157915466</v>
       </c>
       <c r="R28" t="n">
-        <v>1823.916385302404</v>
+        <v>1823.916385302406</v>
       </c>
       <c r="S28" t="n">
-        <v>1699.523901572055</v>
+        <v>1699.523901572056</v>
       </c>
       <c r="T28" t="n">
-        <v>1554.439569642183</v>
+        <v>1554.439569642184</v>
       </c>
       <c r="U28" t="n">
-        <v>1345.029657822547</v>
+        <v>1345.029657822548</v>
       </c>
       <c r="V28" t="n">
         <v>1170.077055769063</v>
       </c>
       <c r="W28" t="n">
-        <v>960.3917718845044</v>
+        <v>960.3917718845049</v>
       </c>
       <c r="X28" t="n">
-        <v>812.1341071388895</v>
+        <v>812.13410713889</v>
       </c>
       <c r="Y28" t="n">
-        <v>671.0734141477618</v>
+        <v>671.0734141477624</v>
       </c>
     </row>
     <row r="29">
@@ -6446,34 +6446,34 @@
         <v>1305.65214448835</v>
       </c>
       <c r="E29" t="n">
-        <v>999.5957780425083</v>
+        <v>999.5957780425078</v>
       </c>
       <c r="F29" t="n">
-        <v>668.3417594053033</v>
+        <v>668.341759405303</v>
       </c>
       <c r="G29" t="n">
-        <v>331.4100416615724</v>
+        <v>331.4100416615729</v>
       </c>
       <c r="H29" t="n">
-        <v>97.26292417139659</v>
+        <v>97.26292417139665</v>
       </c>
       <c r="I29" t="n">
-        <v>73.65495695836225</v>
+        <v>73.65495695836226</v>
       </c>
       <c r="J29" t="n">
         <v>297.5799910797683</v>
       </c>
       <c r="K29" t="n">
-        <v>753.9303748985263</v>
+        <v>433.0264164530734</v>
       </c>
       <c r="L29" t="n">
-        <v>1372.350006829211</v>
+        <v>1051.446048383758</v>
       </c>
       <c r="M29" t="n">
-        <v>1632.04915137349</v>
+        <v>1756.163591085942</v>
       </c>
       <c r="N29" t="n">
-        <v>2260.255301482991</v>
+        <v>2457.652202842742</v>
       </c>
       <c r="O29" t="n">
         <v>2877.463467859193</v>
@@ -6485,13 +6485,13 @@
         <v>3656.632825685595</v>
       </c>
       <c r="R29" t="n">
-        <v>3682.747847918112</v>
+        <v>3682.747847918113</v>
       </c>
       <c r="S29" t="n">
-        <v>3615.930649721615</v>
+        <v>3615.930649721616</v>
       </c>
       <c r="T29" t="n">
-        <v>3482.719512756444</v>
+        <v>3482.719512756445</v>
       </c>
       <c r="U29" t="n">
         <v>3308.793629883393</v>
@@ -6506,7 +6506,7 @@
         <v>2490.691987465836</v>
       </c>
       <c r="Y29" t="n">
-        <v>2180.284541642427</v>
+        <v>2180.284541642426</v>
       </c>
     </row>
     <row r="30">
@@ -6537,28 +6537,28 @@
         <v>111.7457873687503</v>
       </c>
       <c r="I30" t="n">
-        <v>73.65495695836225</v>
+        <v>73.65495695836226</v>
       </c>
       <c r="J30" t="n">
-        <v>213.329793558011</v>
+        <v>88.49966857100627</v>
       </c>
       <c r="K30" t="n">
-        <v>578.677179502275</v>
+        <v>453.8470545152703</v>
       </c>
       <c r="L30" t="n">
-        <v>1131.336222858946</v>
+        <v>639.3741560215167</v>
       </c>
       <c r="M30" t="n">
-        <v>1432.03379030726</v>
+        <v>875.2324009035272</v>
       </c>
       <c r="N30" t="n">
-        <v>1688.543146028933</v>
+        <v>1506.595964803462</v>
       </c>
       <c r="O30" t="n">
-        <v>1900.979298145265</v>
+        <v>2108.955813003755</v>
       </c>
       <c r="P30" t="n">
-        <v>2367.423113630882</v>
+        <v>2575.399628489373</v>
       </c>
       <c r="Q30" t="n">
         <v>2626.530682237336</v>
@@ -6595,40 +6595,40 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>569.1568354699247</v>
+        <v>569.156835469925</v>
       </c>
       <c r="C31" t="n">
-        <v>479.9525386944203</v>
+        <v>479.9525386944206</v>
       </c>
       <c r="D31" t="n">
-        <v>409.5677854344871</v>
+        <v>409.5677854344873</v>
       </c>
       <c r="E31" t="n">
-        <v>341.3865780044965</v>
+        <v>341.3865780044966</v>
       </c>
       <c r="F31" t="n">
-        <v>274.2285166589886</v>
+        <v>274.2285166589887</v>
       </c>
       <c r="G31" t="n">
-        <v>185.5438293952631</v>
+        <v>185.5438293952632</v>
       </c>
       <c r="H31" t="n">
-        <v>112.712759843266</v>
+        <v>112.7127598432661</v>
       </c>
       <c r="I31" t="n">
-        <v>73.65495695836225</v>
+        <v>73.65495695836226</v>
       </c>
       <c r="J31" t="n">
-        <v>147.4657976135351</v>
+        <v>147.465797613535</v>
       </c>
       <c r="K31" t="n">
-        <v>348.3251365539982</v>
+        <v>348.325136553998</v>
       </c>
       <c r="L31" t="n">
-        <v>639.028613955842</v>
+        <v>639.0286139558419</v>
       </c>
       <c r="M31" t="n">
-        <v>951.6758365258081</v>
+        <v>951.6758365258079</v>
       </c>
       <c r="N31" t="n">
         <v>1264.181742072733</v>
@@ -6637,34 +6637,34 @@
         <v>1542.780692160489</v>
       </c>
       <c r="P31" t="n">
-        <v>1768.928025707157</v>
+        <v>1768.928025707158</v>
       </c>
       <c r="Q31" t="n">
-        <v>1866.107157915465</v>
+        <v>1866.107157915466</v>
       </c>
       <c r="R31" t="n">
-        <v>1823.916385302404</v>
+        <v>1823.916385302405</v>
       </c>
       <c r="S31" t="n">
-        <v>1699.523901572055</v>
+        <v>1699.523901572056</v>
       </c>
       <c r="T31" t="n">
-        <v>1554.439569642183</v>
+        <v>1554.439569642184</v>
       </c>
       <c r="U31" t="n">
-        <v>1345.029657822547</v>
+        <v>1345.029657822548</v>
       </c>
       <c r="V31" t="n">
         <v>1170.077055769063</v>
       </c>
       <c r="W31" t="n">
-        <v>960.3917718845044</v>
+        <v>960.3917718845048</v>
       </c>
       <c r="X31" t="n">
-        <v>812.1341071388895</v>
+        <v>812.1341071388899</v>
       </c>
       <c r="Y31" t="n">
-        <v>671.0734141477618</v>
+        <v>671.0734141477623</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1873.416587730708</v>
+        <v>1873.416587730707</v>
       </c>
       <c r="C32" t="n">
-        <v>1584.185956942699</v>
+        <v>1584.185956942698</v>
       </c>
       <c r="D32" t="n">
-        <v>1305.652144488351</v>
+        <v>1305.65214448835</v>
       </c>
       <c r="E32" t="n">
-        <v>999.5957780425088</v>
+        <v>999.5957780425078</v>
       </c>
       <c r="F32" t="n">
-        <v>668.3417594053037</v>
+        <v>668.3417594053026</v>
       </c>
       <c r="G32" t="n">
-        <v>331.4100416615729</v>
+        <v>331.4100416615718</v>
       </c>
       <c r="H32" t="n">
-        <v>97.26292417139661</v>
+        <v>97.26292417139663</v>
       </c>
       <c r="I32" t="n">
-        <v>73.65495695836225</v>
+        <v>73.65495695836223</v>
       </c>
       <c r="J32" t="n">
-        <v>130.1743420594152</v>
+        <v>297.5799910797683</v>
       </c>
       <c r="K32" t="n">
-        <v>586.5247258781733</v>
+        <v>753.9303748985263</v>
       </c>
       <c r="L32" t="n">
-        <v>1204.944357808858</v>
+        <v>1372.350006829211</v>
       </c>
       <c r="M32" t="n">
-        <v>1909.661900511041</v>
+        <v>1935.758869176309</v>
       </c>
       <c r="N32" t="n">
-        <v>2611.150512267841</v>
+        <v>2637.247480933109</v>
       </c>
       <c r="O32" t="n">
-        <v>3228.358678644042</v>
+        <v>2877.463467859192</v>
       </c>
       <c r="P32" t="n">
-        <v>3576.753816091448</v>
+        <v>3366.561975338142</v>
       </c>
       <c r="Q32" t="n">
-        <v>3656.632825685595</v>
+        <v>3656.632825685594</v>
       </c>
       <c r="R32" t="n">
         <v>3682.747847918112</v>
       </c>
       <c r="S32" t="n">
-        <v>3615.930649721616</v>
+        <v>3615.930649721615</v>
       </c>
       <c r="T32" t="n">
-        <v>3482.719512756445</v>
+        <v>3482.719512756444</v>
       </c>
       <c r="U32" t="n">
-        <v>3308.793629883394</v>
+        <v>3308.793629883392</v>
       </c>
       <c r="V32" t="n">
-        <v>3057.462628692226</v>
+        <v>3057.462628692224</v>
       </c>
       <c r="W32" t="n">
-        <v>2784.425859574514</v>
+        <v>2784.425859574513</v>
       </c>
       <c r="X32" t="n">
-        <v>2490.691987465837</v>
+        <v>2490.691987465835</v>
       </c>
       <c r="Y32" t="n">
-        <v>2180.284541642427</v>
+        <v>2180.284541642426</v>
       </c>
     </row>
     <row r="33">
@@ -6765,7 +6765,7 @@
         <v>494.2188565529614</v>
       </c>
       <c r="F33" t="n">
-        <v>347.6842985798464</v>
+        <v>347.6842985798463</v>
       </c>
       <c r="G33" t="n">
         <v>210.4698561065383</v>
@@ -6774,22 +6774,22 @@
         <v>111.7457873687503</v>
       </c>
       <c r="I33" t="n">
-        <v>73.65495695836225</v>
+        <v>73.65495695836223</v>
       </c>
       <c r="J33" t="n">
-        <v>88.49966857100623</v>
+        <v>213.329793558011</v>
       </c>
       <c r="K33" t="n">
-        <v>192.0264698728174</v>
+        <v>316.8565948598221</v>
       </c>
       <c r="L33" t="n">
-        <v>393.9095414406978</v>
+        <v>783.8332375246599</v>
       </c>
       <c r="M33" t="n">
-        <v>1090.815799435208</v>
+        <v>1480.73949551917</v>
       </c>
       <c r="N33" t="n">
-        <v>1821.874105756999</v>
+        <v>2211.797801840962</v>
       </c>
       <c r="O33" t="n">
         <v>2424.233953957293</v>
@@ -6832,49 +6832,49 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>569.156835469925</v>
+        <v>569.1568354699247</v>
       </c>
       <c r="C34" t="n">
-        <v>479.9525386944206</v>
+        <v>479.9525386944202</v>
       </c>
       <c r="D34" t="n">
-        <v>409.5677854344874</v>
+        <v>409.5677854344869</v>
       </c>
       <c r="E34" t="n">
-        <v>341.3865780044968</v>
+        <v>341.3865780044962</v>
       </c>
       <c r="F34" t="n">
-        <v>274.228516658989</v>
+        <v>274.2285166589883</v>
       </c>
       <c r="G34" t="n">
-        <v>185.5438293952635</v>
+        <v>185.5438293952628</v>
       </c>
       <c r="H34" t="n">
         <v>112.7127598432661</v>
       </c>
       <c r="I34" t="n">
-        <v>73.65495695836225</v>
+        <v>73.65495695836223</v>
       </c>
       <c r="J34" t="n">
-        <v>147.4657976135347</v>
+        <v>147.4657976135348</v>
       </c>
       <c r="K34" t="n">
         <v>348.3251365539978</v>
       </c>
       <c r="L34" t="n">
-        <v>639.0286139558416</v>
+        <v>639.0286139558417</v>
       </c>
       <c r="M34" t="n">
-        <v>951.6758365258078</v>
+        <v>951.6758365258077</v>
       </c>
       <c r="N34" t="n">
-        <v>1264.181742072733</v>
+        <v>1264.181742072732</v>
       </c>
       <c r="O34" t="n">
         <v>1542.780692160489</v>
       </c>
       <c r="P34" t="n">
-        <v>1768.928025707158</v>
+        <v>1768.928025707157</v>
       </c>
       <c r="Q34" t="n">
         <v>1866.107157915465</v>
@@ -6883,25 +6883,25 @@
         <v>1823.916385302405</v>
       </c>
       <c r="S34" t="n">
-        <v>1699.523901572056</v>
+        <v>1699.523901572055</v>
       </c>
       <c r="T34" t="n">
-        <v>1554.439569642184</v>
+        <v>1554.439569642183</v>
       </c>
       <c r="U34" t="n">
-        <v>1345.029657822548</v>
+        <v>1345.029657822547</v>
       </c>
       <c r="V34" t="n">
         <v>1170.077055769063</v>
       </c>
       <c r="W34" t="n">
-        <v>960.3917718845049</v>
+        <v>960.3917718845044</v>
       </c>
       <c r="X34" t="n">
-        <v>812.1341071388897</v>
+        <v>812.1341071388896</v>
       </c>
       <c r="Y34" t="n">
-        <v>671.0734141477622</v>
+        <v>671.0734141477619</v>
       </c>
     </row>
     <row r="35">
@@ -6911,61 +6911,61 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1382.503014185496</v>
+        <v>1382.503014185497</v>
       </c>
       <c r="C35" t="n">
-        <v>1167.564075726044</v>
+        <v>1167.564075726045</v>
       </c>
       <c r="D35" t="n">
-        <v>963.3219556002535</v>
+        <v>963.321955600254</v>
       </c>
       <c r="E35" t="n">
-        <v>731.5572814829692</v>
+        <v>731.5572814829696</v>
       </c>
       <c r="F35" t="n">
-        <v>474.5949551743215</v>
+        <v>474.594955174322</v>
       </c>
       <c r="G35" t="n">
         <v>211.9549297591483</v>
       </c>
       <c r="H35" t="n">
-        <v>52.09950459753005</v>
+        <v>52.09950459753007</v>
       </c>
       <c r="I35" t="n">
-        <v>52.09950459753005</v>
+        <v>52.09950459753007</v>
       </c>
       <c r="J35" t="n">
-        <v>108.618889698583</v>
+        <v>108.6188896985831</v>
       </c>
       <c r="K35" t="n">
-        <v>244.065315071888</v>
+        <v>244.0653150718881</v>
       </c>
       <c r="L35" t="n">
-        <v>824.8997081782222</v>
+        <v>449.0003445976265</v>
       </c>
       <c r="M35" t="n">
-        <v>1469.631077572657</v>
+        <v>708.699489141906</v>
       </c>
       <c r="N35" t="n">
-        <v>2114.362446967091</v>
+        <v>1182.482683441383</v>
       </c>
       <c r="O35" t="n">
-        <v>2354.578433893174</v>
+        <v>1799.690849817584</v>
       </c>
       <c r="P35" t="n">
-        <v>2525.096220282356</v>
+        <v>2288.789357296533</v>
       </c>
       <c r="Q35" t="n">
-        <v>2604.975229876502</v>
+        <v>2578.860207643986</v>
       </c>
       <c r="R35" t="n">
-        <v>2604.975229876502</v>
+        <v>2604.975229876503</v>
       </c>
       <c r="S35" t="n">
-        <v>2604.975229876502</v>
+        <v>2604.975229876503</v>
       </c>
       <c r="T35" t="n">
-        <v>2546.055785239889</v>
+        <v>2546.05578523989</v>
       </c>
       <c r="U35" t="n">
         <v>2446.421594695395</v>
@@ -6990,28 +6990,28 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>955.2882981399629</v>
+        <v>955.2882981399625</v>
       </c>
       <c r="C36" t="n">
-        <v>780.8352688588359</v>
+        <v>780.8352688588355</v>
       </c>
       <c r="D36" t="n">
-        <v>631.9008591975846</v>
+        <v>631.9008591975842</v>
       </c>
       <c r="E36" t="n">
-        <v>472.6634041921292</v>
+        <v>472.6634041921286</v>
       </c>
       <c r="F36" t="n">
-        <v>326.1288462190142</v>
+        <v>326.1288462190136</v>
       </c>
       <c r="G36" t="n">
-        <v>188.9144037457061</v>
+        <v>188.914403745706</v>
       </c>
       <c r="H36" t="n">
-        <v>90.19033500791815</v>
+        <v>90.19033500791816</v>
       </c>
       <c r="I36" t="n">
-        <v>52.09950459753005</v>
+        <v>52.09950459753007</v>
       </c>
       <c r="J36" t="n">
         <v>191.7743411971788</v>
@@ -7020,22 +7020,22 @@
         <v>557.1217271414428</v>
       </c>
       <c r="L36" t="n">
-        <v>1109.780770498114</v>
+        <v>742.6488286476891</v>
       </c>
       <c r="M36" t="n">
-        <v>1345.639015380124</v>
+        <v>1022.256324273666</v>
       </c>
       <c r="N36" t="n">
-        <v>1602.148371101797</v>
+        <v>1666.987693668101</v>
       </c>
       <c r="O36" t="n">
-        <v>1879.423845784433</v>
+        <v>1879.423845784432</v>
       </c>
       <c r="P36" t="n">
         <v>2345.86766127005</v>
       </c>
       <c r="Q36" t="n">
-        <v>2604.975229876504</v>
+        <v>2604.975229876503</v>
       </c>
       <c r="R36" t="n">
         <v>2597.954459009853</v>
@@ -7053,10 +7053,10 @@
         <v>1793.352790858719</v>
       </c>
       <c r="W36" t="n">
-        <v>1539.115434130518</v>
+        <v>1539.115434130517</v>
       </c>
       <c r="X36" t="n">
-        <v>1331.263933924985</v>
+        <v>1331.263933924984</v>
       </c>
       <c r="Y36" t="n">
         <v>1123.503635160031</v>
@@ -7069,31 +7069,31 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>231.5217433919809</v>
+        <v>81.40510397964523</v>
       </c>
       <c r="C37" t="n">
-        <v>216.6091389450339</v>
+        <v>66.49249953269819</v>
       </c>
       <c r="D37" t="n">
-        <v>66.49249953269816</v>
+        <v>66.49249953269819</v>
       </c>
       <c r="E37" t="n">
-        <v>66.49249953269816</v>
+        <v>66.49249953269819</v>
       </c>
       <c r="F37" t="n">
-        <v>66.49249953269816</v>
+        <v>66.49249953269819</v>
       </c>
       <c r="G37" t="n">
-        <v>52.09950459753005</v>
+        <v>52.09950459753007</v>
       </c>
       <c r="H37" t="n">
-        <v>52.09950459753005</v>
+        <v>52.09950459753007</v>
       </c>
       <c r="I37" t="n">
-        <v>52.09950459753005</v>
+        <v>52.09950459753007</v>
       </c>
       <c r="J37" t="n">
-        <v>52.09950459753005</v>
+        <v>52.09950459753007</v>
       </c>
       <c r="K37" t="n">
         <v>174.8136219200234</v>
@@ -7117,28 +7117,28 @@
         <v>1223.724313573673</v>
       </c>
       <c r="R37" t="n">
-        <v>1223.724313573673</v>
+        <v>1203.901850626546</v>
       </c>
       <c r="S37" t="n">
-        <v>1173.623522171881</v>
+        <v>999.7774807437941</v>
       </c>
       <c r="T37" t="n">
-        <v>1102.830882570566</v>
+        <v>928.9848411424794</v>
       </c>
       <c r="U37" t="n">
-        <v>967.7126630794871</v>
+        <v>639.8430431704404</v>
       </c>
       <c r="V37" t="n">
-        <v>843.3223513388091</v>
+        <v>539.1821334455134</v>
       </c>
       <c r="W37" t="n">
-        <v>553.9051813018484</v>
+        <v>249.7649634085528</v>
       </c>
       <c r="X37" t="n">
-        <v>325.915630403831</v>
+        <v>175.7989909914953</v>
       </c>
       <c r="Y37" t="n">
-        <v>259.1466297412608</v>
+        <v>109.0299903289251</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1382.503014185497</v>
+        <v>1382.503014185496</v>
       </c>
       <c r="C38" t="n">
-        <v>1167.564075726045</v>
+        <v>1167.564075726044</v>
       </c>
       <c r="D38" t="n">
-        <v>963.3219556002542</v>
+        <v>963.3219556002533</v>
       </c>
       <c r="E38" t="n">
-        <v>731.5572814829698</v>
+        <v>731.557281482969</v>
       </c>
       <c r="F38" t="n">
-        <v>474.5949551743221</v>
+        <v>474.5949551743213</v>
       </c>
       <c r="G38" t="n">
         <v>211.9549297591483</v>
       </c>
       <c r="H38" t="n">
-        <v>52.09950459753007</v>
+        <v>52.09950459753005</v>
       </c>
       <c r="I38" t="n">
-        <v>52.09950459753007</v>
+        <v>52.09950459753005</v>
       </c>
       <c r="J38" t="n">
-        <v>108.6188896985831</v>
+        <v>108.618889698583</v>
       </c>
       <c r="K38" t="n">
-        <v>475.4483750149468</v>
+        <v>372.5044482997313</v>
       </c>
       <c r="L38" t="n">
-        <v>680.3834045406853</v>
+        <v>990.9240802304157</v>
       </c>
       <c r="M38" t="n">
-        <v>940.0825490849649</v>
+        <v>1635.65544962485</v>
       </c>
       <c r="N38" t="n">
-        <v>1208.5977056739</v>
+        <v>1904.170606213785</v>
       </c>
       <c r="O38" t="n">
-        <v>1825.805872050102</v>
+        <v>2144.386593139869</v>
       </c>
       <c r="P38" t="n">
-        <v>2314.904379529051</v>
+        <v>2314.90437952905</v>
       </c>
       <c r="Q38" t="n">
-        <v>2604.975229876503</v>
+        <v>2604.975229876502</v>
       </c>
       <c r="R38" t="n">
-        <v>2604.975229876503</v>
+        <v>2604.975229876502</v>
       </c>
       <c r="S38" t="n">
-        <v>2604.975229876503</v>
+        <v>2604.975229876502</v>
       </c>
       <c r="T38" t="n">
-        <v>2546.05578523989</v>
+        <v>2546.055785239889</v>
       </c>
       <c r="U38" t="n">
         <v>2446.421594695395</v>
       </c>
       <c r="V38" t="n">
-        <v>2269.382285832785</v>
+        <v>2269.382285832784</v>
       </c>
       <c r="W38" t="n">
-        <v>2070.637209043631</v>
+        <v>2070.63720904363</v>
       </c>
       <c r="X38" t="n">
-        <v>1851.195029263511</v>
+        <v>1851.19502926351</v>
       </c>
       <c r="Y38" t="n">
-        <v>1615.079275768659</v>
+        <v>1615.079275768658</v>
       </c>
     </row>
     <row r="39">
@@ -7245,28 +7245,28 @@
         <v>188.9144037457061</v>
       </c>
       <c r="H39" t="n">
-        <v>90.19033500791816</v>
+        <v>90.19033500791815</v>
       </c>
       <c r="I39" t="n">
-        <v>52.09950459753007</v>
+        <v>52.09950459753005</v>
       </c>
       <c r="J39" t="n">
-        <v>66.94421621017405</v>
+        <v>66.94421621017402</v>
       </c>
       <c r="K39" t="n">
-        <v>232.0373536237842</v>
+        <v>170.4710175119852</v>
       </c>
       <c r="L39" t="n">
-        <v>784.6963969804551</v>
+        <v>355.9981190182316</v>
       </c>
       <c r="M39" t="n">
-        <v>1020.554641862466</v>
+        <v>947.6107691432424</v>
       </c>
       <c r="N39" t="n">
-        <v>1277.063997584139</v>
+        <v>1592.342138537677</v>
       </c>
       <c r="O39" t="n">
-        <v>1879.423845784433</v>
+        <v>2194.70198673797</v>
       </c>
       <c r="P39" t="n">
         <v>2345.86766127005</v>
@@ -7306,31 +7306,31 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>382.3186299585154</v>
+        <v>101.2275669267722</v>
       </c>
       <c r="C40" t="n">
-        <v>367.4060255115684</v>
+        <v>86.3149624798252</v>
       </c>
       <c r="D40" t="n">
-        <v>367.4060255115684</v>
+        <v>66.49249953269816</v>
       </c>
       <c r="E40" t="n">
-        <v>367.4060255115684</v>
+        <v>66.49249953269816</v>
       </c>
       <c r="F40" t="n">
-        <v>220.516078013658</v>
+        <v>66.49249953269816</v>
       </c>
       <c r="G40" t="n">
-        <v>52.09950459753007</v>
+        <v>52.09950459753005</v>
       </c>
       <c r="H40" t="n">
-        <v>52.09950459753007</v>
+        <v>52.09950459753005</v>
       </c>
       <c r="I40" t="n">
-        <v>52.09950459753007</v>
+        <v>52.09950459753005</v>
       </c>
       <c r="J40" t="n">
-        <v>52.09950459753007</v>
+        <v>52.09950459753005</v>
       </c>
       <c r="K40" t="n">
         <v>174.8136219200234</v>
@@ -7357,25 +7357,25 @@
         <v>1223.724313573673</v>
       </c>
       <c r="S40" t="n">
-        <v>1173.623522171881</v>
+        <v>1019.599943690921</v>
       </c>
       <c r="T40" t="n">
-        <v>1102.830882570566</v>
+        <v>794.7837256086466</v>
       </c>
       <c r="U40" t="n">
-        <v>967.7126630794871</v>
+        <v>505.6419276366076</v>
       </c>
       <c r="V40" t="n">
-        <v>867.0517533545601</v>
+        <v>404.9810179116806</v>
       </c>
       <c r="W40" t="n">
-        <v>704.7020678683829</v>
+        <v>269.5874263556798</v>
       </c>
       <c r="X40" t="n">
-        <v>476.7125169703655</v>
+        <v>195.6214539386223</v>
       </c>
       <c r="Y40" t="n">
-        <v>409.9435163077953</v>
+        <v>128.8524532760521</v>
       </c>
     </row>
     <row r="41">
@@ -7391,13 +7391,13 @@
         <v>1167.564075726045</v>
       </c>
       <c r="D41" t="n">
-        <v>963.3219556002539</v>
+        <v>963.321955600254</v>
       </c>
       <c r="E41" t="n">
-        <v>731.5572814829695</v>
+        <v>731.5572814829696</v>
       </c>
       <c r="F41" t="n">
-        <v>474.5949551743218</v>
+        <v>474.594955174322</v>
       </c>
       <c r="G41" t="n">
         <v>211.9549297591483</v>
@@ -7412,22 +7412,22 @@
         <v>276.0245387189361</v>
       </c>
       <c r="K41" t="n">
-        <v>411.470964092241</v>
+        <v>732.3749225376941</v>
       </c>
       <c r="L41" t="n">
-        <v>999.7400922750721</v>
+        <v>937.3099520634327</v>
       </c>
       <c r="M41" t="n">
-        <v>1259.439236819352</v>
+        <v>1197.009096607712</v>
       </c>
       <c r="N41" t="n">
-        <v>1904.170606213786</v>
+        <v>1465.524253196648</v>
       </c>
       <c r="O41" t="n">
-        <v>2144.38659313987</v>
+        <v>2035.997712803407</v>
       </c>
       <c r="P41" t="n">
-        <v>2314.904379529051</v>
+        <v>2525.096220282357</v>
       </c>
       <c r="Q41" t="n">
         <v>2604.975229876503</v>
@@ -7445,16 +7445,16 @@
         <v>2446.421594695395</v>
       </c>
       <c r="V41" t="n">
-        <v>2269.382285832785</v>
+        <v>2269.382285832784</v>
       </c>
       <c r="W41" t="n">
-        <v>2070.637209043631</v>
+        <v>2070.63720904363</v>
       </c>
       <c r="X41" t="n">
-        <v>1851.195029263511</v>
+        <v>1851.19502926351</v>
       </c>
       <c r="Y41" t="n">
-        <v>1615.079275768659</v>
+        <v>1615.079275768658</v>
       </c>
     </row>
     <row r="42">
@@ -7464,22 +7464,22 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>955.2882981399625</v>
+        <v>955.2882981399629</v>
       </c>
       <c r="C42" t="n">
-        <v>780.8352688588355</v>
+        <v>780.8352688588359</v>
       </c>
       <c r="D42" t="n">
-        <v>631.9008591975842</v>
+        <v>631.9008591975846</v>
       </c>
       <c r="E42" t="n">
-        <v>472.6634041921286</v>
+        <v>472.6634041921292</v>
       </c>
       <c r="F42" t="n">
-        <v>326.1288462190136</v>
+        <v>326.1288462190142</v>
       </c>
       <c r="G42" t="n">
-        <v>188.9144037457058</v>
+        <v>188.9144037457061</v>
       </c>
       <c r="H42" t="n">
         <v>90.19033500791816</v>
@@ -7494,22 +7494,22 @@
         <v>170.4710175119852</v>
       </c>
       <c r="L42" t="n">
-        <v>604.4508981661841</v>
+        <v>723.1300608686561</v>
       </c>
       <c r="M42" t="n">
-        <v>840.3091430481945</v>
+        <v>1367.861430263091</v>
       </c>
       <c r="N42" t="n">
-        <v>1485.040512442629</v>
+        <v>1624.370785984764</v>
       </c>
       <c r="O42" t="n">
-        <v>2087.400360642923</v>
+        <v>1879.423845784433</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.84417612854</v>
+        <v>2345.86766127005</v>
       </c>
       <c r="Q42" t="n">
-        <v>2604.975229876503</v>
+        <v>2604.975229876504</v>
       </c>
       <c r="R42" t="n">
         <v>2597.954459009853</v>
@@ -7527,10 +7527,10 @@
         <v>1793.352790858719</v>
       </c>
       <c r="W42" t="n">
-        <v>1539.115434130517</v>
+        <v>1539.115434130518</v>
       </c>
       <c r="X42" t="n">
-        <v>1331.263933924984</v>
+        <v>1331.263933924985</v>
       </c>
       <c r="Y42" t="n">
         <v>1123.503635160031</v>
@@ -7543,28 +7543,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>85.82749043286117</v>
+        <v>101.2275669267723</v>
       </c>
       <c r="C43" t="n">
-        <v>70.9148859859141</v>
+        <v>86.31496247982523</v>
       </c>
       <c r="D43" t="n">
-        <v>70.9148859859141</v>
+        <v>86.31496247982523</v>
       </c>
       <c r="E43" t="n">
-        <v>70.9148859859141</v>
+        <v>86.31496247982523</v>
       </c>
       <c r="F43" t="n">
-        <v>70.9148859859141</v>
+        <v>86.31496247982523</v>
       </c>
       <c r="G43" t="n">
-        <v>56.52189105074595</v>
+        <v>71.92196754465711</v>
       </c>
       <c r="H43" t="n">
-        <v>56.52189105074595</v>
+        <v>71.92196754465711</v>
       </c>
       <c r="I43" t="n">
-        <v>56.52189105074595</v>
+        <v>52.09950459753007</v>
       </c>
       <c r="J43" t="n">
         <v>52.09950459753007</v>
@@ -7594,25 +7594,25 @@
         <v>1223.724313573673</v>
       </c>
       <c r="S43" t="n">
-        <v>1019.599943690921</v>
+        <v>1173.623522171881</v>
       </c>
       <c r="T43" t="n">
-        <v>794.7837256086466</v>
+        <v>1102.830882570566</v>
       </c>
       <c r="U43" t="n">
-        <v>505.6419276366076</v>
+        <v>967.7126630794871</v>
       </c>
       <c r="V43" t="n">
-        <v>404.9810179116805</v>
+        <v>713.0281748736003</v>
       </c>
       <c r="W43" t="n">
-        <v>254.1873498617688</v>
+        <v>423.6110048366397</v>
       </c>
       <c r="X43" t="n">
-        <v>180.2213774447113</v>
+        <v>349.6450324195822</v>
       </c>
       <c r="Y43" t="n">
-        <v>113.452376782141</v>
+        <v>128.8524532760521</v>
       </c>
     </row>
     <row r="44">
@@ -7628,13 +7628,13 @@
         <v>1167.564075726045</v>
       </c>
       <c r="D44" t="n">
-        <v>963.3219556002538</v>
+        <v>963.3219556002543</v>
       </c>
       <c r="E44" t="n">
-        <v>731.5572814829694</v>
+        <v>731.5572814829701</v>
       </c>
       <c r="F44" t="n">
-        <v>474.5949551743217</v>
+        <v>474.5949551743224</v>
       </c>
       <c r="G44" t="n">
         <v>211.9549297591483</v>
@@ -7646,28 +7646,28 @@
         <v>52.09950459753007</v>
       </c>
       <c r="J44" t="n">
-        <v>276.0245387189361</v>
+        <v>108.6188896985831</v>
       </c>
       <c r="K44" t="n">
-        <v>732.3749225376941</v>
+        <v>244.0653150718881</v>
       </c>
       <c r="L44" t="n">
-        <v>1201.115920983722</v>
+        <v>862.4849470025724</v>
       </c>
       <c r="M44" t="n">
-        <v>1845.847290378156</v>
+        <v>1124.935334250372</v>
       </c>
       <c r="N44" t="n">
-        <v>2114.362446967092</v>
+        <v>1769.666703644806</v>
       </c>
       <c r="O44" t="n">
-        <v>2354.578433893175</v>
+        <v>2009.88269057089</v>
       </c>
       <c r="P44" t="n">
-        <v>2525.096220282357</v>
+        <v>2498.981198049839</v>
       </c>
       <c r="Q44" t="n">
-        <v>2604.975229876503</v>
+        <v>2578.860207643986</v>
       </c>
       <c r="R44" t="n">
         <v>2604.975229876503</v>
@@ -7701,46 +7701,46 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>955.2882981399629</v>
+        <v>955.2882981399623</v>
       </c>
       <c r="C45" t="n">
-        <v>780.8352688588359</v>
+        <v>780.8352688588353</v>
       </c>
       <c r="D45" t="n">
-        <v>631.9008591975846</v>
+        <v>631.9008591975841</v>
       </c>
       <c r="E45" t="n">
-        <v>472.6634041921292</v>
+        <v>472.6634041921286</v>
       </c>
       <c r="F45" t="n">
-        <v>326.1288462190142</v>
+        <v>326.1288462190136</v>
       </c>
       <c r="G45" t="n">
-        <v>188.9144037457061</v>
+        <v>188.9144037457055</v>
       </c>
       <c r="H45" t="n">
-        <v>90.19033500791816</v>
+        <v>90.19033500791754</v>
       </c>
       <c r="I45" t="n">
         <v>52.09950459753007</v>
       </c>
       <c r="J45" t="n">
-        <v>191.7743411971788</v>
+        <v>66.94421621017405</v>
       </c>
       <c r="K45" t="n">
-        <v>557.1217271414428</v>
+        <v>432.291602154438</v>
       </c>
       <c r="L45" t="n">
-        <v>742.6488286476891</v>
+        <v>984.950645511109</v>
       </c>
       <c r="M45" t="n">
-        <v>978.5070735296996</v>
+        <v>1220.808890393119</v>
       </c>
       <c r="N45" t="n">
-        <v>1623.238442924134</v>
+        <v>1865.540259787554</v>
       </c>
       <c r="O45" t="n">
-        <v>1879.423845784432</v>
+        <v>2077.976411903885</v>
       </c>
       <c r="P45" t="n">
         <v>2345.86766127005</v>
@@ -7758,19 +7758,19 @@
         <v>2256.628755318278</v>
       </c>
       <c r="U45" t="n">
-        <v>2028.504899090462</v>
+        <v>2028.504899090461</v>
       </c>
       <c r="V45" t="n">
         <v>1793.352790858719</v>
       </c>
       <c r="W45" t="n">
-        <v>1539.115434130518</v>
+        <v>1539.115434130517</v>
       </c>
       <c r="X45" t="n">
-        <v>1331.263933924985</v>
+        <v>1331.263933924984</v>
       </c>
       <c r="Y45" t="n">
-        <v>1123.503635160031</v>
+        <v>1123.50363516003</v>
       </c>
     </row>
     <row r="46">
@@ -7828,16 +7828,16 @@
         <v>1223.724313573673</v>
       </c>
       <c r="R46" t="n">
-        <v>1223.724313573673</v>
+        <v>1203.901850626546</v>
       </c>
       <c r="S46" t="n">
-        <v>1173.623522171881</v>
+        <v>1153.801059224754</v>
       </c>
       <c r="T46" t="n">
-        <v>1083.008419623439</v>
+        <v>928.9848411424794</v>
       </c>
       <c r="U46" t="n">
-        <v>793.8666216514002</v>
+        <v>639.8430431704404</v>
       </c>
       <c r="V46" t="n">
         <v>539.1821334455134</v>
@@ -8708,7 +8708,7 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>148.9075226988029</v>
+        <v>148.9075226987774</v>
       </c>
       <c r="R11" t="n">
         <v>39.33760953710589</v>
@@ -8769,19 +8769,19 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>31.86299150015614</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>171.5244616533097</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>139.6614701531729</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>184.1798576333161</v>
+        <v>184.1798576333095</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -8927,7 +8927,7 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>148.9075226988032</v>
+        <v>148.9075226987772</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
@@ -9009,16 +9009,16 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>211.3607168354223</v>
+        <v>211.3607168354158</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>139.6614701531729</v>
+        <v>139.6614701531664</v>
       </c>
       <c r="O15" t="n">
-        <v>4.682132298049765</v>
+        <v>4.682132298037146</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -9164,7 +9164,7 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>148.9075226987772</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
@@ -9182,7 +9182,7 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>148.9075226988029</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
         <v>39.33760953710589</v>
@@ -9240,10 +9240,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>91.23908227406648</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9255,10 +9255,10 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>184.1798576333096</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>45.43342631290079</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -9407,7 +9407,7 @@
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>122.5287123629268</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
@@ -9419,7 +9419,7 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>122.5287123629009</v>
       </c>
       <c r="R20" t="n">
         <v>65.71641987298243</v>
@@ -9477,16 +9477,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>109.6350903561049</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>160.5211780720177</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
@@ -9495,10 +9495,10 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>246.0692289305402</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>69.0921058741927</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9635,10 +9635,10 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>162.6294749565555</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>319.0331189676378</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
@@ -9656,7 +9656,7 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>212.3149906599047</v>
+        <v>55.91134664879797</v>
       </c>
       <c r="R23" t="n">
         <v>39.33760953710589</v>
@@ -9714,7 +9714,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>81.83884195298465</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -9726,16 +9726,16 @@
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>196.7473307369628</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>303.1550895143363</v>
+        <v>303.1550895143301</v>
       </c>
       <c r="Q24" t="n">
-        <v>152.4951373495568</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9872,16 +9872,16 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M26" t="n">
-        <v>449.5135334928325</v>
+        <v>95.07392663944978</v>
       </c>
       <c r="N26" t="n">
         <v>437.3469244119842</v>
@@ -9893,7 +9893,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q26" t="n">
-        <v>106.4399831848979</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
         <v>65.71641987298243</v>
@@ -9951,28 +9951,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N27" t="n">
-        <v>65.49426521848864</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>125.0232109205328</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10112,19 +10112,19 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N29" t="n">
-        <v>363.3242358793593</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O29" t="n">
-        <v>380.8001812627454</v>
+        <v>181.4093718084527</v>
       </c>
       <c r="P29" t="n">
         <v>321.7987081714826</v>
@@ -10188,28 +10188,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>65.49426521848864</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>378.6406143214759</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P30" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10346,7 +10346,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
         <v>324.1454125711647</v>
@@ -10355,19 +10355,19 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M32" t="n">
-        <v>449.5135334928325</v>
+        <v>306.7774927301199</v>
       </c>
       <c r="N32" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O32" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>179.6740919780041</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
         <v>65.71641987298243</v>
@@ -10425,13 +10425,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>16.52118188043846</v>
+        <v>284.292465816759</v>
       </c>
       <c r="M33" t="n">
         <v>465.7050637499999</v>
@@ -10440,7 +10440,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O33" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -10589,25 +10589,25 @@
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>379.6963268490866</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>388.9214392425806</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>380.0163765712111</v>
+        <v>207.3414522328698</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>39.33760953710589</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10668,16 +10668,16 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>44.19116236764307</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>392.1434481543043</v>
       </c>
       <c r="O36" t="n">
-        <v>65.49426521848852</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>318.4627686399372</v>
@@ -10823,22 +10823,22 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>233.7202625687462</v>
+        <v>129.7364982099426</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>388.9214392425806</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
         <v>212.3149906599047</v>
@@ -10902,22 +10902,22 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>62.18821829474646</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>359.3478840838387</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>392.1434481543041</v>
       </c>
       <c r="O39" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
@@ -11060,25 +11060,25 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
-        <v>387.2061602596895</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>380.0163765712114</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>333.5934067481578</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
         <v>39.33760953710589</v>
@@ -11142,22 +11142,22 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>250.96240317975</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>413.0031560731557</v>
       </c>
       <c r="N42" t="n">
-        <v>392.1434481543043</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>393.8623192767295</v>
+        <v>43.04738149832042</v>
       </c>
       <c r="P42" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11294,31 +11294,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>266.4706756770597</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>388.9214392425808</v>
+        <v>2.779033033858468</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>380.0163765712114</v>
       </c>
       <c r="O44" t="n">
         <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>39.33760953710589</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11373,13 +11373,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -11388,10 +11388,10 @@
         <v>392.1434481543043</v>
       </c>
       <c r="O45" t="n">
-        <v>44.19116236764285</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>318.4627686399372</v>
+        <v>117.9046210445298</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
@@ -23261,19 +23261,19 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>222.8040160251656</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>250.0513444767444</v>
+        <v>250.0513444767424</v>
       </c>
       <c r="F11" t="n">
-        <v>274.9970201461941</v>
+        <v>117.636967738315</v>
       </c>
       <c r="G11" t="n">
-        <v>20.82938165331905</v>
+        <v>280.6179422616525</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>178.8611880106329</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23315,16 +23315,16 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>195.8732328746155</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>237.8520750829517</v>
+        <v>237.8520750829497</v>
       </c>
       <c r="Y11" t="n">
-        <v>254.3589130605362</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23495,22 +23495,22 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>233.3938661754902</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>222.8040160251636</v>
       </c>
       <c r="E14" t="n">
-        <v>250.0513444767444</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>274.9970201461941</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>280.6179422616526</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>178.8611880106329</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23549,19 +23549,19 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>30.72966346405067</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>217.3619431218956</v>
+        <v>217.3619431218936</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>237.8520750829497</v>
       </c>
       <c r="Y14" t="n">
-        <v>254.3589130605362</v>
+        <v>123.3955859426158</v>
       </c>
     </row>
     <row r="15">
@@ -23735,13 +23735,13 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>143.8694487342871</v>
+        <v>143.8694487342852</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>77.66935901931249</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -23789,7 +23789,7 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>77.66935901930982</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -23966,22 +23966,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>171.9202487770847</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>9.310960527707785</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>19.85543278282384</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>201.6833749707741</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -24023,7 +24023,7 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>40.30759844880361</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -25868,7 +25868,7 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>-9.766525984932414e-13</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>711632.0793355043</v>
+        <v>711632.0793355032</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>711632.0793355044</v>
+        <v>711632.0793355032</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>790228.0244818216</v>
+        <v>790228.0244818202</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>790228.0244818218</v>
+        <v>790228.0244818202</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>820079.6299662269</v>
+        <v>820079.6299662255</v>
       </c>
     </row>
     <row r="10">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>905253.907391865</v>
+        <v>905253.9073918649</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>864914.9467510667</v>
+        <v>864914.9467510668</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>864914.9467510668</v>
+        <v>864914.9467510667</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>864914.9467510669</v>
+        <v>864914.9467510668</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>655421.0709736308</v>
+      </c>
+      <c r="C2" t="n">
+        <v>655421.0709736306</v>
+      </c>
+      <c r="D2" t="n">
         <v>655421.0709736305</v>
       </c>
-      <c r="C2" t="n">
-        <v>655421.0709736304</v>
-      </c>
-      <c r="D2" t="n">
-        <v>655421.0709736306</v>
-      </c>
       <c r="E2" t="n">
-        <v>576539.7655430946</v>
+        <v>576539.7655430948</v>
       </c>
       <c r="F2" t="n">
-        <v>576539.7655430945</v>
+        <v>576539.765543095</v>
       </c>
       <c r="G2" t="n">
-        <v>642725.8246136777</v>
+        <v>642725.8246136775</v>
       </c>
       <c r="H2" t="n">
         <v>642725.8246136776</v>
       </c>
       <c r="I2" t="n">
-        <v>656833.415891427</v>
+        <v>656833.4158914268</v>
       </c>
       <c r="J2" t="n">
+        <v>656833.4158914267</v>
+      </c>
+      <c r="K2" t="n">
+        <v>656833.4158914263</v>
+      </c>
+      <c r="L2" t="n">
+        <v>656833.4158914263</v>
+      </c>
+      <c r="M2" t="n">
         <v>656833.4158914268</v>
       </c>
-      <c r="K2" t="n">
+      <c r="N2" t="n">
+        <v>656833.4158914271</v>
+      </c>
+      <c r="O2" t="n">
+        <v>656833.4158914272</v>
+      </c>
+      <c r="P2" t="n">
         <v>656833.4158914267</v>
-      </c>
-      <c r="L2" t="n">
-        <v>656833.4158914261</v>
-      </c>
-      <c r="M2" t="n">
-        <v>656833.4158914267</v>
-      </c>
-      <c r="N2" t="n">
-        <v>656833.4158914272</v>
-      </c>
-      <c r="O2" t="n">
-        <v>656833.415891427</v>
-      </c>
-      <c r="P2" t="n">
-        <v>656833.4158914271</v>
       </c>
     </row>
     <row r="3">
@@ -26372,31 +26372,31 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>785287.9654238003</v>
+        <v>785287.9654237999</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>63147.65383270278</v>
+        <v>63147.65383270274</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>15180.32913230362</v>
+        <v>15180.32913230373</v>
       </c>
       <c r="J3" t="n">
-        <v>121622.406464261</v>
+        <v>121622.4064642626</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>63147.65383270277</v>
+        <v>63147.65383270274</v>
       </c>
       <c r="M3" t="n">
-        <v>91065.75139834918</v>
+        <v>91065.75139834768</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26424,19 +26424,19 @@
         <v>447024.6202723929</v>
       </c>
       <c r="E4" t="n">
-        <v>165346.2753949816</v>
+        <v>165346.275394982</v>
       </c>
       <c r="F4" t="n">
-        <v>165346.2753949816</v>
+        <v>165346.275394982</v>
       </c>
       <c r="G4" t="n">
-        <v>212567.3046188559</v>
+        <v>212567.3046188562</v>
       </c>
       <c r="H4" t="n">
-        <v>212567.304618856</v>
+        <v>212567.3046188562</v>
       </c>
       <c r="I4" t="n">
-        <v>220346.1549866095</v>
+        <v>220346.1549866098</v>
       </c>
       <c r="J4" t="n">
         <v>205672.9437790744</v>
@@ -26476,25 +26476,25 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>50546.64444716315</v>
+        <v>50546.64444716292</v>
       </c>
       <c r="F5" t="n">
-        <v>50546.64444716315</v>
+        <v>50546.64444716292</v>
       </c>
       <c r="G5" t="n">
-        <v>57182.59458474001</v>
+        <v>57182.59458473978</v>
       </c>
       <c r="H5" t="n">
-        <v>57182.59458474001</v>
+        <v>57182.59458473978</v>
       </c>
       <c r="I5" t="n">
-        <v>60653.41490823482</v>
+        <v>60653.4149082346</v>
       </c>
       <c r="J5" t="n">
-        <v>77828.7048386517</v>
+        <v>77828.70483865171</v>
       </c>
       <c r="K5" t="n">
-        <v>77828.7048386517</v>
+        <v>77828.70483865171</v>
       </c>
       <c r="L5" t="n">
         <v>77828.7048386517</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>174768.8507012377</v>
+        <v>174764.4371233698</v>
       </c>
       <c r="C6" t="n">
-        <v>174768.8507012375</v>
+        <v>174764.4371233697</v>
       </c>
       <c r="D6" t="n">
-        <v>174768.8507012378</v>
+        <v>174764.4371233695</v>
       </c>
       <c r="E6" t="n">
-        <v>-424641.1197228504</v>
+        <v>-424892.0373801885</v>
       </c>
       <c r="F6" t="n">
-        <v>360646.8457009498</v>
+        <v>360395.9280436115</v>
       </c>
       <c r="G6" t="n">
-        <v>309828.271577379</v>
+        <v>309784.1853546358</v>
       </c>
       <c r="H6" t="n">
-        <v>372975.9254100815</v>
+        <v>372931.8391873387</v>
       </c>
       <c r="I6" t="n">
-        <v>360653.5168642791</v>
+        <v>360653.5168642787</v>
       </c>
       <c r="J6" t="n">
-        <v>251709.3608094397</v>
+        <v>251709.360809438</v>
       </c>
       <c r="K6" t="n">
-        <v>373331.7672737006</v>
+        <v>373331.7672737002</v>
       </c>
       <c r="L6" t="n">
-        <v>310184.1134409973</v>
+        <v>310184.1134409974</v>
       </c>
       <c r="M6" t="n">
-        <v>285617.5507675031</v>
+        <v>285617.5507675047</v>
       </c>
       <c r="N6" t="n">
+        <v>376683.3021658526</v>
+      </c>
+      <c r="O6" t="n">
         <v>376683.3021658527</v>
       </c>
-      <c r="O6" t="n">
-        <v>376683.3021658525</v>
-      </c>
       <c r="P6" t="n">
-        <v>376683.3021658526</v>
+        <v>376683.3021658523</v>
       </c>
     </row>
   </sheetData>
@@ -26692,28 +26692,28 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>131.8790255955174</v>
+        <v>131.8790255955194</v>
       </c>
       <c r="F2" t="n">
-        <v>131.8790255955174</v>
+        <v>131.8790255955194</v>
       </c>
       <c r="G2" t="n">
-        <v>210.8135928863958</v>
+        <v>210.8135928863978</v>
       </c>
       <c r="H2" t="n">
-        <v>210.8135928863958</v>
+        <v>210.8135928863978</v>
       </c>
       <c r="I2" t="n">
-        <v>210.8135928863958</v>
+        <v>210.8135928863978</v>
       </c>
       <c r="J2" t="n">
-        <v>78.93456729087848</v>
+        <v>78.93456729087842</v>
       </c>
       <c r="K2" t="n">
-        <v>78.93456729087848</v>
+        <v>78.93456729087842</v>
       </c>
       <c r="L2" t="n">
-        <v>78.93456729087846</v>
+        <v>78.93456729087842</v>
       </c>
       <c r="M2" t="n">
         <v>152.4833426961503</v>
@@ -26722,7 +26722,7 @@
         <v>152.4833426961503</v>
       </c>
       <c r="O2" t="n">
-        <v>152.4833426961502</v>
+        <v>152.4833426961503</v>
       </c>
       <c r="P2" t="n">
         <v>152.4833426961503</v>
@@ -26762,7 +26762,7 @@
         <v>697.9352024183275</v>
       </c>
       <c r="K3" t="n">
-        <v>697.9352024183275</v>
+        <v>697.9352024183277</v>
       </c>
       <c r="L3" t="n">
         <v>697.9352024183275</v>
@@ -26796,34 +26796,34 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>398.7618294679944</v>
+        <v>398.7618294679879</v>
       </c>
       <c r="F4" t="n">
-        <v>398.7618294679944</v>
+        <v>398.7618294679879</v>
       </c>
       <c r="G4" t="n">
-        <v>398.7618294679944</v>
+        <v>398.7618294679879</v>
       </c>
       <c r="H4" t="n">
-        <v>398.7618294679944</v>
+        <v>398.7618294679879</v>
       </c>
       <c r="I4" t="n">
-        <v>455.8476900517904</v>
+        <v>455.8476900517843</v>
       </c>
       <c r="J4" t="n">
-        <v>920.6869619795281</v>
+        <v>920.6869619795283</v>
       </c>
       <c r="K4" t="n">
-        <v>920.6869619795281</v>
+        <v>920.6869619795282</v>
       </c>
       <c r="L4" t="n">
-        <v>920.6869619795281</v>
+        <v>920.686961979528</v>
       </c>
       <c r="M4" t="n">
+        <v>651.2438074691258</v>
+      </c>
+      <c r="N4" t="n">
         <v>651.2438074691256</v>
-      </c>
-      <c r="N4" t="n">
-        <v>651.2438074691258</v>
       </c>
       <c r="O4" t="n">
         <v>651.2438074691258</v>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>131.8790255955174</v>
+        <v>131.8790255955194</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>78.93456729087848</v>
+        <v>78.93456729087842</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26935,10 +26935,10 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>78.93456729087846</v>
+        <v>78.93456729087842</v>
       </c>
       <c r="M2" t="n">
-        <v>73.5487754052718</v>
+        <v>73.54877540527184</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>398.7618294679944</v>
+        <v>398.7618294679879</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27030,10 +27030,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>57.08586058379603</v>
+        <v>57.08586058379643</v>
       </c>
       <c r="J4" t="n">
-        <v>464.8392719277376</v>
+        <v>464.839271927744</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>129.318674957592</v>
+        <v>129.3186749575858</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>131.8790255955174</v>
+        <v>131.8790255955194</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>78.93456729087848</v>
+        <v>78.93456729087842</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>398.7618294679944</v>
+        <v>398.7618294679879</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -28087,25 +28087,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>131.8790255955174</v>
+        <v>131.8790255955194</v>
       </c>
       <c r="C11" t="n">
-        <v>131.8790255955174</v>
+        <v>131.8790255955194</v>
       </c>
       <c r="D11" t="n">
-        <v>131.8790255955174</v>
+        <v>131.8790255955194</v>
       </c>
       <c r="E11" t="n">
-        <v>131.8790255955174</v>
+        <v>131.8790255955194</v>
       </c>
       <c r="F11" t="n">
-        <v>131.8790255955174</v>
+        <v>131.8790255955194</v>
       </c>
       <c r="G11" t="n">
-        <v>131.8790255955174</v>
+        <v>131.8790255955194</v>
       </c>
       <c r="H11" t="n">
-        <v>131.8790255955174</v>
+        <v>131.8790255955194</v>
       </c>
       <c r="I11" t="n">
         <v>102.3064548317825</v>
@@ -28138,25 +28138,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>131.8790255955174</v>
+        <v>131.8790255955194</v>
       </c>
       <c r="T11" t="n">
-        <v>131.8790255955174</v>
+        <v>131.8790255955194</v>
       </c>
       <c r="U11" t="n">
-        <v>131.8790255955174</v>
+        <v>131.8790255955194</v>
       </c>
       <c r="V11" t="n">
-        <v>131.8790255955174</v>
+        <v>131.8790255955194</v>
       </c>
       <c r="W11" t="n">
-        <v>131.8790255955174</v>
+        <v>131.8790255955194</v>
       </c>
       <c r="X11" t="n">
-        <v>131.8790255955174</v>
+        <v>131.8790255955194</v>
       </c>
       <c r="Y11" t="n">
-        <v>131.8790255955174</v>
+        <v>131.8790255955194</v>
       </c>
     </row>
     <row r="12">
@@ -28169,19 +28169,19 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>131.8790255955174</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>131.8790255955194</v>
       </c>
       <c r="E12" t="n">
-        <v>131.8790255955174</v>
+        <v>131.8790255955194</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>131.8790255955194</v>
       </c>
       <c r="G12" t="n">
-        <v>46.16059333900866</v>
+        <v>131.8790255955194</v>
       </c>
       <c r="H12" t="n">
         <v>97.73682805041007</v>
@@ -28214,22 +28214,22 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>6.950563157984178</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>131.8790255955194</v>
       </c>
       <c r="T12" t="n">
-        <v>131.8790255955174</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>131.8790255955174</v>
+        <v>53.11115649700614</v>
       </c>
       <c r="V12" t="n">
-        <v>131.8790255955174</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>131.8790255955174</v>
+        <v>131.8790255955194</v>
       </c>
       <c r="X12" t="n">
         <v>0</v>
@@ -28245,25 +28245,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>131.8790255955174</v>
+        <v>131.8790255955194</v>
       </c>
       <c r="C13" t="n">
-        <v>131.8790255955174</v>
+        <v>131.8790255955194</v>
       </c>
       <c r="D13" t="n">
-        <v>131.8790255955174</v>
+        <v>131.8790255955194</v>
       </c>
       <c r="E13" t="n">
-        <v>131.8790255955174</v>
+        <v>131.8790255955194</v>
       </c>
       <c r="F13" t="n">
-        <v>131.8790255955174</v>
+        <v>131.8790255955194</v>
       </c>
       <c r="G13" t="n">
-        <v>131.8790255955174</v>
+        <v>131.8790255955194</v>
       </c>
       <c r="H13" t="n">
-        <v>131.8790255955174</v>
+        <v>131.8790255955194</v>
       </c>
       <c r="I13" t="n">
         <v>117.6017921469332</v>
@@ -28293,28 +28293,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>45.54306982652066</v>
       </c>
       <c r="S13" t="n">
-        <v>131.8790255955174</v>
+        <v>131.8790255955194</v>
       </c>
       <c r="T13" t="n">
-        <v>131.8790255955174</v>
+        <v>131.8790255955194</v>
       </c>
       <c r="U13" t="n">
-        <v>45.54306982654677</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>131.8790255955174</v>
+        <v>131.8790255955194</v>
       </c>
       <c r="W13" t="n">
-        <v>131.8790255955174</v>
+        <v>131.8790255955194</v>
       </c>
       <c r="X13" t="n">
-        <v>131.8790255955174</v>
+        <v>131.8790255955194</v>
       </c>
       <c r="Y13" t="n">
-        <v>131.8790255955174</v>
+        <v>131.8790255955194</v>
       </c>
     </row>
     <row r="14">
@@ -28324,25 +28324,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>131.8790255955174</v>
+        <v>131.8790255955194</v>
       </c>
       <c r="C14" t="n">
-        <v>131.8790255955174</v>
+        <v>131.8790255955194</v>
       </c>
       <c r="D14" t="n">
-        <v>131.8790255955174</v>
+        <v>131.8790255955194</v>
       </c>
       <c r="E14" t="n">
-        <v>131.8790255955174</v>
+        <v>131.8790255955194</v>
       </c>
       <c r="F14" t="n">
-        <v>131.8790255955174</v>
+        <v>131.8790255955194</v>
       </c>
       <c r="G14" t="n">
-        <v>131.8790255955174</v>
+        <v>131.8790255955194</v>
       </c>
       <c r="H14" t="n">
-        <v>131.8790255955174</v>
+        <v>131.8790255955194</v>
       </c>
       <c r="I14" t="n">
         <v>102.3064548317825</v>
@@ -28375,25 +28375,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>131.8790255955174</v>
+        <v>131.8790255955194</v>
       </c>
       <c r="T14" t="n">
-        <v>131.8790255955174</v>
+        <v>131.8790255955194</v>
       </c>
       <c r="U14" t="n">
-        <v>131.8790255955174</v>
+        <v>131.8790255955194</v>
       </c>
       <c r="V14" t="n">
-        <v>131.8790255955174</v>
+        <v>131.8790255955194</v>
       </c>
       <c r="W14" t="n">
-        <v>131.8790255955174</v>
+        <v>131.8790255955194</v>
       </c>
       <c r="X14" t="n">
-        <v>131.8790255955174</v>
+        <v>131.8790255955194</v>
       </c>
       <c r="Y14" t="n">
-        <v>131.8790255955174</v>
+        <v>131.8790255955194</v>
       </c>
     </row>
     <row r="15">
@@ -28406,25 +28406,25 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>131.8790255955194</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>131.8790255955194</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>131.8790255955194</v>
       </c>
       <c r="G15" t="n">
-        <v>131.8790255955174</v>
+        <v>131.8790255955194</v>
       </c>
       <c r="H15" t="n">
         <v>97.73682805041007</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>37.70992210628421</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -28451,28 +28451,28 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>6.950563157984178</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>131.8790255955174</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>131.8790255955174</v>
+        <v>53.11115649700633</v>
       </c>
       <c r="U15" t="n">
-        <v>83.87051544529291</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>131.8790255955194</v>
       </c>
       <c r="W15" t="n">
-        <v>131.8790255955174</v>
+        <v>131.8790255955194</v>
       </c>
       <c r="X15" t="n">
-        <v>131.8790255955174</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>131.8790255955174</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -28482,25 +28482,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>131.8790255955174</v>
+        <v>131.8790255955194</v>
       </c>
       <c r="C16" t="n">
-        <v>131.8790255955174</v>
+        <v>131.8790255955194</v>
       </c>
       <c r="D16" t="n">
-        <v>131.8790255955174</v>
+        <v>131.8790255955194</v>
       </c>
       <c r="E16" t="n">
-        <v>131.8790255955174</v>
+        <v>131.8790255955194</v>
       </c>
       <c r="F16" t="n">
-        <v>131.8790255955174</v>
+        <v>131.8790255955194</v>
       </c>
       <c r="G16" t="n">
-        <v>131.8790255955174</v>
+        <v>131.8790255955194</v>
       </c>
       <c r="H16" t="n">
-        <v>56.71866324425609</v>
+        <v>131.8790255955194</v>
       </c>
       <c r="I16" t="n">
         <v>117.6017921469332</v>
@@ -28530,28 +28530,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>120.7034321778081</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>131.8790255955194</v>
       </c>
       <c r="T16" t="n">
-        <v>131.8790255955174</v>
+        <v>131.8790255955194</v>
       </c>
       <c r="U16" t="n">
-        <v>131.8790255955174</v>
+        <v>45.54306982652045</v>
       </c>
       <c r="V16" t="n">
-        <v>131.8790255955174</v>
+        <v>131.8790255955194</v>
       </c>
       <c r="W16" t="n">
-        <v>131.8790255955174</v>
+        <v>131.8790255955194</v>
       </c>
       <c r="X16" t="n">
-        <v>131.8790255955174</v>
+        <v>131.8790255955194</v>
       </c>
       <c r="Y16" t="n">
-        <v>131.8790255955174</v>
+        <v>131.8790255955194</v>
       </c>
     </row>
     <row r="17">
@@ -28561,25 +28561,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>210.8135928863958</v>
+        <v>210.8135928863978</v>
       </c>
       <c r="C17" t="n">
-        <v>210.8135928863958</v>
+        <v>210.8135928863978</v>
       </c>
       <c r="D17" t="n">
-        <v>210.8135928863958</v>
+        <v>210.8135928863978</v>
       </c>
       <c r="E17" t="n">
-        <v>210.8135928863958</v>
+        <v>210.8135928863978</v>
       </c>
       <c r="F17" t="n">
-        <v>210.8135928863958</v>
+        <v>210.8135928863978</v>
       </c>
       <c r="G17" t="n">
-        <v>210.8135928863958</v>
+        <v>210.8135928863978</v>
       </c>
       <c r="H17" t="n">
-        <v>210.8135928863958</v>
+        <v>210.8135928863978</v>
       </c>
       <c r="I17" t="n">
         <v>102.3064548317825</v>
@@ -28615,22 +28615,22 @@
         <v>145.0835935054106</v>
       </c>
       <c r="T17" t="n">
-        <v>210.8135928863958</v>
+        <v>210.8135928863978</v>
       </c>
       <c r="U17" t="n">
-        <v>210.8135928863958</v>
+        <v>210.8135928863978</v>
       </c>
       <c r="V17" t="n">
-        <v>210.8135928863958</v>
+        <v>210.8135928863978</v>
       </c>
       <c r="W17" t="n">
-        <v>210.8135928863958</v>
+        <v>210.8135928863978</v>
       </c>
       <c r="X17" t="n">
-        <v>210.8135928863958</v>
+        <v>210.8135928863978</v>
       </c>
       <c r="Y17" t="n">
-        <v>210.8135928863958</v>
+        <v>210.8135928863978</v>
       </c>
     </row>
     <row r="18">
@@ -28640,13 +28640,13 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>47.57006072172611</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
         <v>157.6450804554009</v>
@@ -28691,19 +28691,19 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>143.7986844789169</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>194.113762175742</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>67.91627251807824</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>210.8135928863978</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
@@ -28719,7 +28719,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -28767,28 +28767,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>120.7034321778081</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>202.0831261839242</v>
       </c>
       <c r="T19" t="n">
-        <v>112.3207658200725</v>
+        <v>210.7730519958898</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>210.8135928863978</v>
       </c>
       <c r="V19" t="n">
-        <v>210.8135928863958</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>210.8135928863958</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>210.8135928863978</v>
       </c>
     </row>
     <row r="20">
@@ -28798,25 +28798,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>210.8135928863958</v>
+        <v>210.8135928863978</v>
       </c>
       <c r="C20" t="n">
-        <v>210.8135928863958</v>
+        <v>210.8135928863978</v>
       </c>
       <c r="D20" t="n">
-        <v>210.8135928863958</v>
+        <v>210.8135928863978</v>
       </c>
       <c r="E20" t="n">
-        <v>210.8135928863958</v>
+        <v>210.8135928863978</v>
       </c>
       <c r="F20" t="n">
-        <v>210.8135928863958</v>
+        <v>210.8135928863978</v>
       </c>
       <c r="G20" t="n">
-        <v>210.8135928863958</v>
+        <v>210.8135928863978</v>
       </c>
       <c r="H20" t="n">
-        <v>210.8135928863958</v>
+        <v>210.8135928863978</v>
       </c>
       <c r="I20" t="n">
         <v>102.3064548317825</v>
@@ -28855,19 +28855,19 @@
         <v>210.8135928863978</v>
       </c>
       <c r="U20" t="n">
-        <v>210.8135928863958</v>
+        <v>210.8135928863978</v>
       </c>
       <c r="V20" t="n">
-        <v>210.8135928863958</v>
+        <v>210.8135928863978</v>
       </c>
       <c r="W20" t="n">
-        <v>210.8135928863958</v>
+        <v>210.8135928863978</v>
       </c>
       <c r="X20" t="n">
-        <v>210.8135928863958</v>
+        <v>210.8135928863978</v>
       </c>
       <c r="Y20" t="n">
-        <v>210.8135928863958</v>
+        <v>210.8135928863978</v>
       </c>
     </row>
     <row r="21">
@@ -28877,19 +28877,19 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
         <v>135.842298048575</v>
@@ -28925,25 +28925,25 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>6.950563157984178</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>143.7986844789169</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>194.113762175742</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>60.965709360094</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>31.14669714816299</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
         <v>0</v>
@@ -28962,16 +28962,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>58.85311265435669</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.7324076819667</v>
       </c>
       <c r="H22" t="n">
         <v>151.0373261473556</v>
@@ -29004,28 +29004,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>120.7034321778081</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>202.0831261839242</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>123.5504679299869</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>210.8135928863958</v>
+        <v>210.8135928863978</v>
       </c>
       <c r="W22" t="n">
-        <v>210.8135928863958</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>210.8135928863958</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>210.8135928863958</v>
+        <v>210.8135928863978</v>
       </c>
     </row>
     <row r="23">
@@ -29035,25 +29035,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>210.8135928863958</v>
+        <v>210.8135928863978</v>
       </c>
       <c r="C23" t="n">
-        <v>210.8135928863958</v>
+        <v>210.8135928863978</v>
       </c>
       <c r="D23" t="n">
-        <v>210.8135928863958</v>
+        <v>210.8135928863978</v>
       </c>
       <c r="E23" t="n">
-        <v>210.8135928863958</v>
+        <v>210.8135928863978</v>
       </c>
       <c r="F23" t="n">
-        <v>210.8135928863958</v>
+        <v>210.8135928863978</v>
       </c>
       <c r="G23" t="n">
-        <v>210.8135928863958</v>
+        <v>210.8135928863978</v>
       </c>
       <c r="H23" t="n">
-        <v>210.8135928863958</v>
+        <v>210.8135928863978</v>
       </c>
       <c r="I23" t="n">
         <v>102.3064548317825</v>
@@ -29089,22 +29089,22 @@
         <v>145.0835935054106</v>
       </c>
       <c r="T23" t="n">
-        <v>210.8135928863958</v>
+        <v>210.8135928863978</v>
       </c>
       <c r="U23" t="n">
-        <v>210.8135928863958</v>
+        <v>210.8135928863978</v>
       </c>
       <c r="V23" t="n">
-        <v>210.8135928863958</v>
+        <v>210.8135928863978</v>
       </c>
       <c r="W23" t="n">
-        <v>210.8135928863958</v>
+        <v>210.8135928863978</v>
       </c>
       <c r="X23" t="n">
-        <v>210.8135928863958</v>
+        <v>210.8135928863978</v>
       </c>
       <c r="Y23" t="n">
-        <v>210.8135928863958</v>
+        <v>210.8135928863978</v>
       </c>
     </row>
     <row r="24">
@@ -29114,19 +29114,19 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>27.95674266006048</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
         <v>135.842298048575</v>
@@ -29165,16 +29165,16 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>143.7986844789169</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
         <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>132.3919269026135</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>210.8135928863958</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
         <v>0</v>
@@ -29199,7 +29199,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -29241,10 +29241,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>120.7034321778081</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>202.0831261839242</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -29253,16 +29253,16 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>210.8135928863978</v>
       </c>
       <c r="W25" t="n">
-        <v>112.3207658200725</v>
+        <v>179.5565448321648</v>
       </c>
       <c r="X25" t="n">
-        <v>210.8135928863958</v>
+        <v>210.8135928863978</v>
       </c>
       <c r="Y25" t="n">
-        <v>210.8135928863958</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -29272,28 +29272,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>78.93456729087848</v>
+        <v>78.93456729087842</v>
       </c>
       <c r="C26" t="n">
-        <v>78.93456729087848</v>
+        <v>78.93456729087842</v>
       </c>
       <c r="D26" t="n">
-        <v>78.93456729087848</v>
+        <v>78.93456729087842</v>
       </c>
       <c r="E26" t="n">
-        <v>78.93456729087848</v>
+        <v>78.93456729087842</v>
       </c>
       <c r="F26" t="n">
-        <v>78.93456729087848</v>
+        <v>78.93456729087842</v>
       </c>
       <c r="G26" t="n">
-        <v>78.93456729087848</v>
+        <v>78.93456729087842</v>
       </c>
       <c r="H26" t="n">
-        <v>78.93456729087848</v>
+        <v>78.93456729087842</v>
       </c>
       <c r="I26" t="n">
-        <v>78.93456729087848</v>
+        <v>78.93456729087842</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -29323,25 +29323,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>78.93456729087848</v>
+        <v>78.93456729087842</v>
       </c>
       <c r="T26" t="n">
-        <v>78.93456729087848</v>
+        <v>78.93456729087842</v>
       </c>
       <c r="U26" t="n">
-        <v>78.93456729087848</v>
+        <v>78.93456729087842</v>
       </c>
       <c r="V26" t="n">
-        <v>78.93456729087848</v>
+        <v>78.93456729087842</v>
       </c>
       <c r="W26" t="n">
-        <v>78.93456729087848</v>
+        <v>78.93456729087842</v>
       </c>
       <c r="X26" t="n">
-        <v>78.93456729087848</v>
+        <v>78.93456729087842</v>
       </c>
       <c r="Y26" t="n">
-        <v>78.93456729087848</v>
+        <v>78.93456729087842</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>78.93456729087848</v>
+        <v>78.93456729087842</v>
       </c>
       <c r="C28" t="n">
-        <v>78.93456729087848</v>
+        <v>78.93456729087842</v>
       </c>
       <c r="D28" t="n">
-        <v>78.93456729087848</v>
+        <v>78.93456729087842</v>
       </c>
       <c r="E28" t="n">
-        <v>78.93456729087848</v>
+        <v>78.93456729087842</v>
       </c>
       <c r="F28" t="n">
-        <v>78.93456729087848</v>
+        <v>78.93456729087842</v>
       </c>
       <c r="G28" t="n">
-        <v>78.93456729087848</v>
+        <v>78.93456729087842</v>
       </c>
       <c r="H28" t="n">
-        <v>78.93456729087848</v>
+        <v>78.93456729087842</v>
       </c>
       <c r="I28" t="n">
-        <v>78.93456729087848</v>
+        <v>78.93456729087842</v>
       </c>
       <c r="J28" t="n">
-        <v>78.93456729087848</v>
+        <v>78.93456729087903</v>
       </c>
       <c r="K28" t="n">
-        <v>78.93456729087848</v>
+        <v>78.93456729087842</v>
       </c>
       <c r="L28" t="n">
-        <v>78.93456729087848</v>
+        <v>78.93456729087842</v>
       </c>
       <c r="M28" t="n">
-        <v>78.93456729087848</v>
+        <v>78.93456729087842</v>
       </c>
       <c r="N28" t="n">
-        <v>78.93456729087848</v>
+        <v>78.93456729087842</v>
       </c>
       <c r="O28" t="n">
-        <v>78.93456729087848</v>
+        <v>78.93456729087842</v>
       </c>
       <c r="P28" t="n">
-        <v>78.93456729087848</v>
+        <v>78.93456729087842</v>
       </c>
       <c r="Q28" t="n">
-        <v>78.93456729087744</v>
+        <v>78.93456729087842</v>
       </c>
       <c r="R28" t="n">
-        <v>78.93456729087848</v>
+        <v>78.93456729087842</v>
       </c>
       <c r="S28" t="n">
-        <v>78.93456729087848</v>
+        <v>78.93456729087842</v>
       </c>
       <c r="T28" t="n">
-        <v>78.93456729087848</v>
+        <v>78.93456729087842</v>
       </c>
       <c r="U28" t="n">
-        <v>78.93456729087848</v>
+        <v>78.93456729087842</v>
       </c>
       <c r="V28" t="n">
-        <v>78.93456729087848</v>
+        <v>78.93456729087842</v>
       </c>
       <c r="W28" t="n">
-        <v>78.93456729087848</v>
+        <v>78.93456729087842</v>
       </c>
       <c r="X28" t="n">
-        <v>78.93456729087848</v>
+        <v>78.93456729087842</v>
       </c>
       <c r="Y28" t="n">
-        <v>78.93456729087848</v>
+        <v>78.93456729087842</v>
       </c>
     </row>
     <row r="29">
@@ -29509,28 +29509,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>78.93456729087848</v>
+        <v>78.93456729087842</v>
       </c>
       <c r="C29" t="n">
-        <v>78.93456729087848</v>
+        <v>78.93456729087842</v>
       </c>
       <c r="D29" t="n">
-        <v>78.93456729087848</v>
+        <v>78.93456729087842</v>
       </c>
       <c r="E29" t="n">
-        <v>78.93456729087848</v>
+        <v>78.93456729087842</v>
       </c>
       <c r="F29" t="n">
-        <v>78.93456729087848</v>
+        <v>78.93456729087842</v>
       </c>
       <c r="G29" t="n">
-        <v>78.93456729087848</v>
+        <v>78.93456729087842</v>
       </c>
       <c r="H29" t="n">
-        <v>78.93456729087848</v>
+        <v>78.93456729087842</v>
       </c>
       <c r="I29" t="n">
-        <v>78.93456729087848</v>
+        <v>78.93456729087842</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -29560,25 +29560,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>78.93456729087848</v>
+        <v>78.93456729087842</v>
       </c>
       <c r="T29" t="n">
-        <v>78.93456729087848</v>
+        <v>78.93456729087842</v>
       </c>
       <c r="U29" t="n">
-        <v>78.93456729087848</v>
+        <v>78.93456729087842</v>
       </c>
       <c r="V29" t="n">
-        <v>78.93456729087848</v>
+        <v>78.93456729087842</v>
       </c>
       <c r="W29" t="n">
-        <v>78.93456729087848</v>
+        <v>78.93456729087842</v>
       </c>
       <c r="X29" t="n">
-        <v>78.93456729087848</v>
+        <v>78.93456729087842</v>
       </c>
       <c r="Y29" t="n">
-        <v>78.93456729087848</v>
+        <v>78.93456729087842</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>78.93456729087848</v>
+        <v>78.93456729087842</v>
       </c>
       <c r="C31" t="n">
-        <v>78.93456729087848</v>
+        <v>78.93456729087842</v>
       </c>
       <c r="D31" t="n">
-        <v>78.93456729087848</v>
+        <v>78.93456729087842</v>
       </c>
       <c r="E31" t="n">
-        <v>78.93456729087848</v>
+        <v>78.93456729087842</v>
       </c>
       <c r="F31" t="n">
-        <v>78.93456729087848</v>
+        <v>78.93456729087842</v>
       </c>
       <c r="G31" t="n">
-        <v>78.93456729087848</v>
+        <v>78.93456729087842</v>
       </c>
       <c r="H31" t="n">
-        <v>78.93456729087848</v>
+        <v>78.93456729087842</v>
       </c>
       <c r="I31" t="n">
-        <v>78.93456729087848</v>
+        <v>78.93456729087842</v>
       </c>
       <c r="J31" t="n">
-        <v>78.93456729087848</v>
+        <v>78.93456729087842</v>
       </c>
       <c r="K31" t="n">
-        <v>78.93456729087848</v>
+        <v>78.93456729087842</v>
       </c>
       <c r="L31" t="n">
-        <v>78.93456729087848</v>
+        <v>78.93456729087842</v>
       </c>
       <c r="M31" t="n">
-        <v>78.93456729087848</v>
+        <v>78.93456729087842</v>
       </c>
       <c r="N31" t="n">
-        <v>78.93456729087848</v>
+        <v>78.93456729087842</v>
       </c>
       <c r="O31" t="n">
-        <v>78.93456729087848</v>
+        <v>78.93456729087842</v>
       </c>
       <c r="P31" t="n">
-        <v>78.93456729087765</v>
+        <v>78.93456729087842</v>
       </c>
       <c r="Q31" t="n">
-        <v>78.93456729087848</v>
+        <v>78.93456729087842</v>
       </c>
       <c r="R31" t="n">
-        <v>78.93456729087848</v>
+        <v>78.93456729087842</v>
       </c>
       <c r="S31" t="n">
-        <v>78.93456729087848</v>
+        <v>78.93456729087842</v>
       </c>
       <c r="T31" t="n">
-        <v>78.93456729087848</v>
+        <v>78.93456729087842</v>
       </c>
       <c r="U31" t="n">
-        <v>78.93456729087848</v>
+        <v>78.93456729087842</v>
       </c>
       <c r="V31" t="n">
-        <v>78.93456729087848</v>
+        <v>78.93456729087842</v>
       </c>
       <c r="W31" t="n">
-        <v>78.93456729087848</v>
+        <v>78.93456729087842</v>
       </c>
       <c r="X31" t="n">
-        <v>78.93456729087848</v>
+        <v>78.93456729087842</v>
       </c>
       <c r="Y31" t="n">
-        <v>78.93456729087848</v>
+        <v>78.93456729087842</v>
       </c>
     </row>
     <row r="32">
@@ -29746,28 +29746,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>78.93456729087846</v>
+        <v>78.93456729087842</v>
       </c>
       <c r="C32" t="n">
-        <v>78.93456729087846</v>
+        <v>78.93456729087842</v>
       </c>
       <c r="D32" t="n">
-        <v>78.93456729087846</v>
+        <v>78.93456729087842</v>
       </c>
       <c r="E32" t="n">
-        <v>78.93456729087846</v>
+        <v>78.93456729087842</v>
       </c>
       <c r="F32" t="n">
-        <v>78.93456729087846</v>
+        <v>78.93456729087842</v>
       </c>
       <c r="G32" t="n">
-        <v>78.93456729087846</v>
+        <v>78.93456729087842</v>
       </c>
       <c r="H32" t="n">
-        <v>78.93456729087846</v>
+        <v>78.93456729087842</v>
       </c>
       <c r="I32" t="n">
-        <v>78.93456729087846</v>
+        <v>78.93456729087842</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29797,25 +29797,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>78.93456729087846</v>
+        <v>78.93456729087842</v>
       </c>
       <c r="T32" t="n">
-        <v>78.93456729087846</v>
+        <v>78.93456729087842</v>
       </c>
       <c r="U32" t="n">
-        <v>78.93456729087846</v>
+        <v>78.93456729087842</v>
       </c>
       <c r="V32" t="n">
-        <v>78.93456729087846</v>
+        <v>78.93456729087842</v>
       </c>
       <c r="W32" t="n">
-        <v>78.93456729087846</v>
+        <v>78.93456729087842</v>
       </c>
       <c r="X32" t="n">
-        <v>78.93456729087846</v>
+        <v>78.93456729087842</v>
       </c>
       <c r="Y32" t="n">
-        <v>78.93456729087846</v>
+        <v>78.93456729087842</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>78.93456729087846</v>
+        <v>78.93456729087842</v>
       </c>
       <c r="C34" t="n">
-        <v>78.93456729087846</v>
+        <v>78.93456729087842</v>
       </c>
       <c r="D34" t="n">
-        <v>78.93456729087846</v>
+        <v>78.93456729087842</v>
       </c>
       <c r="E34" t="n">
-        <v>78.93456729087846</v>
+        <v>78.93456729087842</v>
       </c>
       <c r="F34" t="n">
-        <v>78.93456729087846</v>
+        <v>78.93456729087842</v>
       </c>
       <c r="G34" t="n">
-        <v>78.93456729087846</v>
+        <v>78.93456729087842</v>
       </c>
       <c r="H34" t="n">
-        <v>78.93456729087846</v>
+        <v>78.93456729087842</v>
       </c>
       <c r="I34" t="n">
-        <v>78.93456729087846</v>
+        <v>78.93456729087842</v>
       </c>
       <c r="J34" t="n">
-        <v>78.93456729087846</v>
+        <v>78.93456729087842</v>
       </c>
       <c r="K34" t="n">
-        <v>78.93456729087846</v>
+        <v>78.93456729087842</v>
       </c>
       <c r="L34" t="n">
-        <v>78.93456729087846</v>
+        <v>78.93456729087842</v>
       </c>
       <c r="M34" t="n">
-        <v>78.93456729087846</v>
+        <v>78.93456729087842</v>
       </c>
       <c r="N34" t="n">
-        <v>78.93456729087846</v>
+        <v>78.93456729087842</v>
       </c>
       <c r="O34" t="n">
-        <v>78.93456729087846</v>
+        <v>78.93456729087842</v>
       </c>
       <c r="P34" t="n">
-        <v>78.93456729087846</v>
+        <v>78.93456729087842</v>
       </c>
       <c r="Q34" t="n">
-        <v>78.93456729087846</v>
+        <v>78.93456729087842</v>
       </c>
       <c r="R34" t="n">
-        <v>78.93456729087846</v>
+        <v>78.93456729087842</v>
       </c>
       <c r="S34" t="n">
-        <v>78.93456729087846</v>
+        <v>78.93456729087842</v>
       </c>
       <c r="T34" t="n">
-        <v>78.93456729087846</v>
+        <v>78.93456729087842</v>
       </c>
       <c r="U34" t="n">
-        <v>78.93456729087846</v>
+        <v>78.93456729087842</v>
       </c>
       <c r="V34" t="n">
-        <v>78.93456729087846</v>
+        <v>78.93456729087842</v>
       </c>
       <c r="W34" t="n">
-        <v>78.93456729087846</v>
+        <v>78.93456729087842</v>
       </c>
       <c r="X34" t="n">
-        <v>78.93456729087846</v>
+        <v>78.93456729087842</v>
       </c>
       <c r="Y34" t="n">
-        <v>78.93456729087846</v>
+        <v>78.93456729087842</v>
       </c>
     </row>
     <row r="35">
@@ -30147,7 +30147,7 @@
         <v>152.4833426961503</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -30189,25 +30189,25 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>120.7034321778081</v>
+        <v>101.0791938601524</v>
       </c>
       <c r="S37" t="n">
-        <v>152.4833426961503</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>152.4833426961503</v>
       </c>
       <c r="U37" t="n">
+        <v>0</v>
+      </c>
+      <c r="V37" t="n">
         <v>152.4833426961503</v>
       </c>
-      <c r="V37" t="n">
-        <v>128.9912347005567</v>
-      </c>
       <c r="W37" t="n">
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>152.4833426961503</v>
       </c>
       <c r="Y37" t="n">
         <v>152.4833426961503</v>
@@ -30384,16 +30384,16 @@
         <v>152.4833426961503</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>128.9912347005566</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>152.4833426961503</v>
       </c>
       <c r="H40" t="n">
         <v>151.0373261473556</v>
@@ -30429,22 +30429,22 @@
         <v>120.7034321778081</v>
       </c>
       <c r="S40" t="n">
-        <v>152.4833426961503</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>152.4833426961503</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>152.4833426961503</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>152.4833426961503</v>
       </c>
       <c r="W40" t="n">
-        <v>125.7968097052755</v>
+        <v>152.4833426961503</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>152.4833426961503</v>
       </c>
       <c r="Y40" t="n">
         <v>152.4833426961503</v>
@@ -30457,25 +30457,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>152.4833426961502</v>
+        <v>152.4833426961503</v>
       </c>
       <c r="C41" t="n">
-        <v>152.4833426961502</v>
+        <v>152.4833426961503</v>
       </c>
       <c r="D41" t="n">
-        <v>152.4833426961502</v>
+        <v>152.4833426961503</v>
       </c>
       <c r="E41" t="n">
-        <v>152.4833426961502</v>
+        <v>152.4833426961503</v>
       </c>
       <c r="F41" t="n">
-        <v>152.4833426961502</v>
+        <v>152.4833426961503</v>
       </c>
       <c r="G41" t="n">
-        <v>152.4833426961502</v>
+        <v>152.4833426961503</v>
       </c>
       <c r="H41" t="n">
-        <v>152.4833426961502</v>
+        <v>152.4833426961503</v>
       </c>
       <c r="I41" t="n">
         <v>102.3064548317825</v>
@@ -30511,22 +30511,22 @@
         <v>145.0835935054106</v>
       </c>
       <c r="T41" t="n">
-        <v>152.4833426961502</v>
+        <v>152.4833426961503</v>
       </c>
       <c r="U41" t="n">
-        <v>152.4833426961502</v>
+        <v>152.4833426961503</v>
       </c>
       <c r="V41" t="n">
-        <v>152.4833426961502</v>
+        <v>152.4833426961503</v>
       </c>
       <c r="W41" t="n">
-        <v>152.4833426961502</v>
+        <v>152.4833426961503</v>
       </c>
       <c r="X41" t="n">
-        <v>152.4833426961502</v>
+        <v>152.4833426961503</v>
       </c>
       <c r="Y41" t="n">
-        <v>152.4833426961502</v>
+        <v>152.4833426961503</v>
       </c>
     </row>
     <row r="42">
@@ -30615,10 +30615,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>152.4833426961502</v>
+        <v>152.4833426961503</v>
       </c>
       <c r="C43" t="n">
-        <v>152.4833426961502</v>
+        <v>152.4833426961503</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -30630,16 +30630,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>152.4833426961502</v>
+        <v>152.4833426961503</v>
       </c>
       <c r="H43" t="n">
         <v>151.0373261473556</v>
       </c>
       <c r="I43" t="n">
-        <v>117.6017921469332</v>
+        <v>97.97755382927747</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>4.378162588683722</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -30666,25 +30666,25 @@
         <v>120.7034321778081</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>152.4833426961503</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>152.4833426961503</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>152.4833426961503</v>
       </c>
       <c r="V43" t="n">
-        <v>152.4833426961502</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>137.2372669671784</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>152.4833426961502</v>
+        <v>152.4833426961503</v>
       </c>
       <c r="Y43" t="n">
-        <v>152.4833426961502</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -30794,7 +30794,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>6.181721801112872e-13</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -30824,7 +30824,7 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
         <v>0</v>
@@ -30900,19 +30900,19 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>120.7034321778081</v>
+        <v>101.0791938601521</v>
       </c>
       <c r="S46" t="n">
         <v>152.4833426961503</v>
       </c>
       <c r="T46" t="n">
-        <v>132.8591043784945</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>152.4833426961503</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -33178,37 +33178,37 @@
         <v>28.73458850961485</v>
       </c>
       <c r="I29" t="n">
-        <v>108.1694347386234</v>
+        <v>108.1694347386235</v>
       </c>
       <c r="J29" t="n">
         <v>238.1361925075479</v>
       </c>
       <c r="K29" t="n">
-        <v>356.904422129127</v>
+        <v>356.9044221291271</v>
       </c>
       <c r="L29" t="n">
-        <v>442.771495299016</v>
+        <v>442.7714952990161</v>
       </c>
       <c r="M29" t="n">
-        <v>492.6686014538177</v>
+        <v>492.6686014538178</v>
       </c>
       <c r="N29" t="n">
-        <v>500.6404944945054</v>
+        <v>500.6404944945056</v>
       </c>
       <c r="O29" t="n">
-        <v>472.7406224581346</v>
+        <v>472.7406224581347</v>
       </c>
       <c r="P29" t="n">
         <v>403.47318402717</v>
       </c>
       <c r="Q29" t="n">
-        <v>302.9915581513655</v>
+        <v>302.9915581513656</v>
       </c>
       <c r="R29" t="n">
-        <v>176.2479282770262</v>
+        <v>176.2479282770263</v>
       </c>
       <c r="S29" t="n">
-        <v>63.93647608083474</v>
+        <v>63.93647608083476</v>
       </c>
       <c r="T29" t="n">
         <v>12.28225667773358</v>
@@ -33278,22 +33278,22 @@
         <v>357.1782162791228</v>
       </c>
       <c r="P30" t="n">
-        <v>286.6670079517844</v>
+        <v>286.6670079517845</v>
       </c>
       <c r="Q30" t="n">
         <v>191.629303124368</v>
       </c>
       <c r="R30" t="n">
-        <v>93.20727099465896</v>
+        <v>93.20727099465897</v>
       </c>
       <c r="S30" t="n">
         <v>27.8844866249209</v>
       </c>
       <c r="T30" t="n">
-        <v>6.050966519079649</v>
+        <v>6.05096651907965</v>
       </c>
       <c r="U30" t="n">
-        <v>0.09876441543655583</v>
+        <v>0.09876441543655584</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,13 +33333,13 @@
         <v>1.258571676492066</v>
       </c>
       <c r="H31" t="n">
-        <v>11.18984636008401</v>
+        <v>11.18984636008402</v>
       </c>
       <c r="I31" t="n">
-        <v>37.84868278032505</v>
+        <v>37.84868278032506</v>
       </c>
       <c r="J31" t="n">
-        <v>88.98101752798905</v>
+        <v>88.98101752798907</v>
       </c>
       <c r="K31" t="n">
         <v>146.2231456869873</v>
@@ -33363,16 +33363,16 @@
         <v>105.3882155651675</v>
       </c>
       <c r="R31" t="n">
-        <v>56.58995919936142</v>
+        <v>56.58995919936143</v>
       </c>
       <c r="S31" t="n">
         <v>21.93347185304809</v>
       </c>
       <c r="T31" t="n">
-        <v>5.377533526829735</v>
+        <v>5.377533526829736</v>
       </c>
       <c r="U31" t="n">
-        <v>0.06864936417229459</v>
+        <v>0.0686493641722946</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -35428,7 +35428,7 @@
         <v>172.2401882719004</v>
       </c>
       <c r="Q11" t="n">
-        <v>229.5933909757189</v>
+        <v>229.5933909756934</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35489,19 +35489,19 @@
         <v>14.99465819458987</v>
       </c>
       <c r="K12" t="n">
-        <v>136.4355180676421</v>
+        <v>104.572526567486</v>
       </c>
       <c r="L12" t="n">
-        <v>187.4011126325721</v>
+        <v>358.9255742858819</v>
       </c>
       <c r="M12" t="n">
         <v>238.2406513959701</v>
       </c>
       <c r="N12" t="n">
-        <v>398.7618294679944</v>
+        <v>259.1003593148215</v>
       </c>
       <c r="O12" t="n">
-        <v>398.7618294679944</v>
+        <v>398.7618294679879</v>
       </c>
       <c r="P12" t="n">
         <v>152.6926005374542</v>
@@ -35647,7 +35647,7 @@
         <v>57.0902879808616</v>
       </c>
       <c r="K14" t="n">
-        <v>285.7220937829497</v>
+        <v>285.7220937829237</v>
       </c>
       <c r="L14" t="n">
         <v>207.0050803290288</v>
@@ -35729,16 +35729,16 @@
         <v>104.572526567486</v>
       </c>
       <c r="L15" t="n">
-        <v>398.7618294679944</v>
+        <v>398.7618294679879</v>
       </c>
       <c r="M15" t="n">
         <v>238.2406513959701</v>
       </c>
       <c r="N15" t="n">
-        <v>398.7618294679944</v>
+        <v>398.7618294679879</v>
       </c>
       <c r="O15" t="n">
-        <v>219.2641041327281</v>
+        <v>219.2641041327155</v>
       </c>
       <c r="P15" t="n">
         <v>152.6926005374542</v>
@@ -35884,7 +35884,7 @@
         <v>57.0902879808616</v>
       </c>
       <c r="K17" t="n">
-        <v>136.8145710841465</v>
+        <v>285.7220937829237</v>
       </c>
       <c r="L17" t="n">
         <v>207.0050803290288</v>
@@ -35902,7 +35902,7 @@
         <v>172.2401882719004</v>
       </c>
       <c r="Q17" t="n">
-        <v>229.5933909757189</v>
+        <v>80.68586827691601</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35911,7 +35911,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>-1.938005311785673e-12</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -35960,10 +35960,10 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>106.2337404686564</v>
+        <v>141.0856935349987</v>
       </c>
       <c r="K18" t="n">
-        <v>369.0377635800646</v>
+        <v>104.572526567486</v>
       </c>
       <c r="L18" t="n">
         <v>187.4011126325721</v>
@@ -35975,10 +35975,10 @@
         <v>259.1003593148215</v>
       </c>
       <c r="O18" t="n">
-        <v>214.5819718346783</v>
+        <v>398.7618294679879</v>
       </c>
       <c r="P18" t="n">
-        <v>152.6926005374542</v>
+        <v>198.1260268503549</v>
       </c>
       <c r="Q18" t="n">
         <v>51.64752903834648</v>
@@ -36127,7 +36127,7 @@
         <v>207.0050803290288</v>
       </c>
       <c r="M20" t="n">
-        <v>384.8510805894718</v>
+        <v>262.322368226545</v>
       </c>
       <c r="N20" t="n">
         <v>271.2274308979145</v>
@@ -36139,7 +36139,7 @@
         <v>172.2401882719004</v>
       </c>
       <c r="Q20" t="n">
-        <v>80.68586827691601</v>
+        <v>203.2145806398169</v>
       </c>
       <c r="R20" t="n">
         <v>26.37881033587655</v>
@@ -36197,16 +36197,16 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>14.99465819458987</v>
+        <v>141.0856935349987</v>
       </c>
       <c r="K21" t="n">
-        <v>214.2076169235909</v>
+        <v>104.572526567486</v>
       </c>
       <c r="L21" t="n">
         <v>187.4011126325721</v>
       </c>
       <c r="M21" t="n">
-        <v>238.2406513959701</v>
+        <v>398.7618294679879</v>
       </c>
       <c r="N21" t="n">
         <v>259.1003593148215</v>
@@ -36215,10 +36215,10 @@
         <v>214.5819718346783</v>
       </c>
       <c r="P21" t="n">
-        <v>398.7618294679944</v>
+        <v>152.6926005374542</v>
       </c>
       <c r="Q21" t="n">
-        <v>51.64752903834648</v>
+        <v>120.7396349125392</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36355,10 +36355,10 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>219.7197629374171</v>
+        <v>57.0902879808616</v>
       </c>
       <c r="K23" t="n">
-        <v>136.8145710841465</v>
+        <v>455.8476900517843</v>
       </c>
       <c r="L23" t="n">
         <v>207.0050803290288</v>
@@ -36376,7 +36376,7 @@
         <v>172.2401882719004</v>
       </c>
       <c r="Q23" t="n">
-        <v>293.0008589368207</v>
+        <v>136.597214925714</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -36385,7 +36385,7 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>-1.932676241267473e-12</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
@@ -36434,7 +36434,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>141.0856935349987</v>
+        <v>96.83350014757453</v>
       </c>
       <c r="K24" t="n">
         <v>104.572526567486</v>
@@ -36446,16 +36446,16 @@
         <v>238.2406513959701</v>
       </c>
       <c r="N24" t="n">
-        <v>259.1003593148215</v>
+        <v>455.8476900517843</v>
       </c>
       <c r="O24" t="n">
         <v>214.5819718346783</v>
       </c>
       <c r="P24" t="n">
-        <v>455.8476900517904</v>
+        <v>455.8476900517843</v>
       </c>
       <c r="Q24" t="n">
-        <v>204.1426663879033</v>
+        <v>51.64752903834648</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36592,16 +36592,16 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>226.1869031529354</v>
+        <v>57.0902879808616</v>
       </c>
       <c r="K26" t="n">
         <v>460.9599836553112</v>
       </c>
       <c r="L26" t="n">
-        <v>207.0050803290288</v>
+        <v>624.6662948794792</v>
       </c>
       <c r="M26" t="n">
-        <v>711.8359017193775</v>
+        <v>357.3962948659948</v>
       </c>
       <c r="N26" t="n">
         <v>708.5743553098987</v>
@@ -36613,7 +36613,7 @@
         <v>494.0388964433831</v>
       </c>
       <c r="Q26" t="n">
-        <v>187.1258514618139</v>
+        <v>293.0008589368207</v>
       </c>
       <c r="R26" t="n">
         <v>26.37881033587655</v>
@@ -36671,28 +36671,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>141.0856935349987</v>
+        <v>14.99465819458987</v>
       </c>
       <c r="K27" t="n">
-        <v>369.0377635800646</v>
+        <v>104.572526567486</v>
       </c>
       <c r="L27" t="n">
         <v>558.2414579360313</v>
       </c>
       <c r="M27" t="n">
-        <v>238.2406513959701</v>
+        <v>703.9457151459701</v>
       </c>
       <c r="N27" t="n">
-        <v>324.5946245333101</v>
+        <v>259.1003593148215</v>
       </c>
       <c r="O27" t="n">
-        <v>214.5819718346783</v>
+        <v>608.4442911114079</v>
       </c>
       <c r="P27" t="n">
-        <v>471.1553691773913</v>
+        <v>152.6926005374542</v>
       </c>
       <c r="Q27" t="n">
-        <v>261.7248167741956</v>
+        <v>176.6707399588793</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>74.55640470219475</v>
+        <v>74.55640470219531</v>
       </c>
       <c r="K28" t="n">
-        <v>202.8882211519829</v>
+        <v>202.8882211519828</v>
       </c>
       <c r="L28" t="n">
         <v>293.6398761634787</v>
       </c>
       <c r="M28" t="n">
-        <v>315.8052753231981</v>
+        <v>315.805275323198</v>
       </c>
       <c r="N28" t="n">
         <v>315.6625308554794</v>
       </c>
       <c r="O28" t="n">
-        <v>281.4130808967241</v>
+        <v>281.413080896724</v>
       </c>
       <c r="P28" t="n">
-        <v>228.4316500471396</v>
+        <v>228.4316500471395</v>
       </c>
       <c r="Q28" t="n">
-        <v>98.16073960435051</v>
+        <v>98.16073960435149</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36832,19 +36832,19 @@
         <v>226.1869031529354</v>
       </c>
       <c r="K29" t="n">
-        <v>460.9599836553112</v>
+        <v>136.8145710841465</v>
       </c>
       <c r="L29" t="n">
         <v>624.6662948794792</v>
       </c>
       <c r="M29" t="n">
-        <v>262.322368226545</v>
+        <v>711.8359017193775</v>
       </c>
       <c r="N29" t="n">
-        <v>634.5516667772738</v>
+        <v>708.5743553098988</v>
       </c>
       <c r="O29" t="n">
-        <v>623.4425922991933</v>
+        <v>424.0517828449007</v>
       </c>
       <c r="P29" t="n">
         <v>494.0388964433831</v>
@@ -36853,7 +36853,7 @@
         <v>293.0008589368207</v>
       </c>
       <c r="R29" t="n">
-        <v>26.37881033587655</v>
+        <v>26.37881033587658</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,28 +36908,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>141.0856935349987</v>
+        <v>14.9946581945899</v>
       </c>
       <c r="K30" t="n">
         <v>369.0377635800646</v>
       </c>
       <c r="L30" t="n">
-        <v>558.2414579360313</v>
+        <v>187.4011126325722</v>
       </c>
       <c r="M30" t="n">
-        <v>303.7349166144588</v>
+        <v>238.2406513959702</v>
       </c>
       <c r="N30" t="n">
-        <v>259.1003593148215</v>
+        <v>637.7409736362974</v>
       </c>
       <c r="O30" t="n">
-        <v>214.5819718346783</v>
+        <v>608.4442911114079</v>
       </c>
       <c r="P30" t="n">
-        <v>471.1553691773913</v>
+        <v>471.1553691773914</v>
       </c>
       <c r="Q30" t="n">
-        <v>261.7248167741956</v>
+        <v>51.64752903834651</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>74.55640470219475</v>
+        <v>74.55640470219471</v>
       </c>
       <c r="K31" t="n">
         <v>202.8882211519829</v>
@@ -36996,19 +36996,19 @@
         <v>293.6398761634787</v>
       </c>
       <c r="M31" t="n">
-        <v>315.8052753231981</v>
+        <v>315.805275323198</v>
       </c>
       <c r="N31" t="n">
         <v>315.6625308554794</v>
       </c>
       <c r="O31" t="n">
-        <v>281.4130808967241</v>
+        <v>281.413080896724</v>
       </c>
       <c r="P31" t="n">
-        <v>228.4316500471388</v>
+        <v>228.4316500471396</v>
       </c>
       <c r="Q31" t="n">
-        <v>98.16073960435155</v>
+        <v>98.16073960435151</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,7 +37066,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>57.0902879808616</v>
+        <v>226.1869031529354</v>
       </c>
       <c r="K32" t="n">
         <v>460.9599836553112</v>
@@ -37075,19 +37075,19 @@
         <v>624.6662948794792</v>
       </c>
       <c r="M32" t="n">
-        <v>711.8359017193775</v>
+        <v>569.0998609566649</v>
       </c>
       <c r="N32" t="n">
         <v>708.5743553098987</v>
       </c>
       <c r="O32" t="n">
-        <v>623.4425922991933</v>
+        <v>242.6424110364479</v>
       </c>
       <c r="P32" t="n">
-        <v>351.9142802499045</v>
+        <v>494.0388964433831</v>
       </c>
       <c r="Q32" t="n">
-        <v>80.68586827691601</v>
+        <v>293.0008589368207</v>
       </c>
       <c r="R32" t="n">
         <v>26.37881033587655</v>
@@ -37145,13 +37145,13 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>14.99465819458987</v>
+        <v>141.0856935349987</v>
       </c>
       <c r="K33" t="n">
         <v>104.572526567486</v>
       </c>
       <c r="L33" t="n">
-        <v>203.9222945130106</v>
+        <v>471.6935784493311</v>
       </c>
       <c r="M33" t="n">
         <v>703.9457151459701</v>
@@ -37160,7 +37160,7 @@
         <v>738.442733658375</v>
       </c>
       <c r="O33" t="n">
-        <v>608.4442911114079</v>
+        <v>214.5819718346783</v>
       </c>
       <c r="P33" t="n">
         <v>152.6926005374542</v>
@@ -37224,10 +37224,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>74.55640470219474</v>
+        <v>74.5564047021947</v>
       </c>
       <c r="K34" t="n">
-        <v>202.8882211519829</v>
+        <v>202.8882211519828</v>
       </c>
       <c r="L34" t="n">
         <v>293.6398761634787</v>
@@ -37242,10 +37242,10 @@
         <v>281.413080896724</v>
       </c>
       <c r="P34" t="n">
-        <v>228.4316500471396</v>
+        <v>228.4316500471395</v>
       </c>
       <c r="Q34" t="n">
-        <v>98.16073960435153</v>
+        <v>98.16073960435149</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37309,25 +37309,25 @@
         <v>136.8145710841465</v>
       </c>
       <c r="L35" t="n">
-        <v>586.7014071781153</v>
+        <v>207.0050803290288</v>
       </c>
       <c r="M35" t="n">
-        <v>651.2438074691256</v>
+        <v>262.322368226545</v>
       </c>
       <c r="N35" t="n">
-        <v>651.2438074691256</v>
+        <v>478.5688831307843</v>
       </c>
       <c r="O35" t="n">
-        <v>242.6424110364479</v>
+        <v>623.4425922991933</v>
       </c>
       <c r="P35" t="n">
-        <v>172.2401882719004</v>
+        <v>494.0388964433831</v>
       </c>
       <c r="Q35" t="n">
-        <v>80.68586827691601</v>
+        <v>293.0008589368207</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>26.37881033587655</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37388,16 +37388,16 @@
         <v>369.0377635800646</v>
       </c>
       <c r="L36" t="n">
-        <v>558.2414579360313</v>
+        <v>187.4011126325721</v>
       </c>
       <c r="M36" t="n">
-        <v>238.2406513959701</v>
+        <v>282.4318137636132</v>
       </c>
       <c r="N36" t="n">
-        <v>259.1003593148215</v>
+        <v>651.2438074691258</v>
       </c>
       <c r="O36" t="n">
-        <v>280.0762370531668</v>
+        <v>214.5819718346783</v>
       </c>
       <c r="P36" t="n">
         <v>471.1553691773913</v>
@@ -37543,22 +37543,22 @@
         <v>57.0902879808616</v>
       </c>
       <c r="K38" t="n">
-        <v>370.5348336528926</v>
+        <v>266.5510692940891</v>
       </c>
       <c r="L38" t="n">
-        <v>207.0050803290288</v>
+        <v>624.6662948794792</v>
       </c>
       <c r="M38" t="n">
-        <v>262.322368226545</v>
+        <v>651.2438074691256</v>
       </c>
       <c r="N38" t="n">
         <v>271.2274308979145</v>
       </c>
       <c r="O38" t="n">
-        <v>623.4425922991933</v>
+        <v>242.6424110364479</v>
       </c>
       <c r="P38" t="n">
-        <v>494.0388964433831</v>
+        <v>172.2401882719004</v>
       </c>
       <c r="Q38" t="n">
         <v>293.0008589368207</v>
@@ -37622,22 +37622,22 @@
         <v>14.99465819458987</v>
       </c>
       <c r="K39" t="n">
-        <v>166.7607448622325</v>
+        <v>104.572526567486</v>
       </c>
       <c r="L39" t="n">
-        <v>558.2414579360313</v>
+        <v>187.4011126325721</v>
       </c>
       <c r="M39" t="n">
-        <v>238.2406513959701</v>
+        <v>597.5885354798088</v>
       </c>
       <c r="N39" t="n">
-        <v>259.1003593148215</v>
+        <v>651.2438074691256</v>
       </c>
       <c r="O39" t="n">
         <v>608.4442911114079</v>
       </c>
       <c r="P39" t="n">
-        <v>471.1553691773913</v>
+        <v>152.6926005374542</v>
       </c>
       <c r="Q39" t="n">
         <v>261.7248167741956</v>
@@ -37780,25 +37780,25 @@
         <v>226.1869031529354</v>
       </c>
       <c r="K41" t="n">
-        <v>136.8145710841465</v>
+        <v>460.9599836553112</v>
       </c>
       <c r="L41" t="n">
-        <v>594.2112405887183</v>
+        <v>207.0050803290288</v>
       </c>
       <c r="M41" t="n">
         <v>262.322368226545</v>
       </c>
       <c r="N41" t="n">
-        <v>651.2438074691258</v>
+        <v>271.2274308979145</v>
       </c>
       <c r="O41" t="n">
-        <v>242.6424110364479</v>
+        <v>576.2358177846057</v>
       </c>
       <c r="P41" t="n">
-        <v>172.2401882719004</v>
+        <v>494.0388964433831</v>
       </c>
       <c r="Q41" t="n">
-        <v>293.0008589368207</v>
+        <v>80.68586827691601</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37862,22 +37862,22 @@
         <v>104.572526567486</v>
       </c>
       <c r="L42" t="n">
-        <v>438.3635158123221</v>
+        <v>558.2414579360313</v>
       </c>
       <c r="M42" t="n">
-        <v>238.2406513959701</v>
+        <v>651.2438074691258</v>
       </c>
       <c r="N42" t="n">
-        <v>651.2438074691258</v>
+        <v>259.1003593148215</v>
       </c>
       <c r="O42" t="n">
-        <v>608.4442911114079</v>
+        <v>257.6293533329987</v>
       </c>
       <c r="P42" t="n">
         <v>471.1553691773913</v>
       </c>
       <c r="Q42" t="n">
-        <v>51.64752903834648</v>
+        <v>261.7248167741956</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38014,31 +38014,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>226.1869031529354</v>
+        <v>57.0902879808616</v>
       </c>
       <c r="K44" t="n">
-        <v>460.9599836553112</v>
+        <v>136.8145710841465</v>
       </c>
       <c r="L44" t="n">
-        <v>473.4757560060884</v>
+        <v>624.6662948794792</v>
       </c>
       <c r="M44" t="n">
+        <v>265.1014012604035</v>
+      </c>
+      <c r="N44" t="n">
         <v>651.2438074691258</v>
-      </c>
-      <c r="N44" t="n">
-        <v>271.2274308979145</v>
       </c>
       <c r="O44" t="n">
         <v>242.6424110364479</v>
       </c>
       <c r="P44" t="n">
-        <v>172.2401882719004</v>
+        <v>494.0388964433831</v>
       </c>
       <c r="Q44" t="n">
         <v>80.68586827691601</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>26.37881033587655</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,13 +38093,13 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>141.0856935349987</v>
+        <v>14.99465819458987</v>
       </c>
       <c r="K45" t="n">
         <v>369.0377635800646</v>
       </c>
       <c r="L45" t="n">
-        <v>187.4011126325721</v>
+        <v>558.2414579360313</v>
       </c>
       <c r="M45" t="n">
         <v>238.2406513959701</v>
@@ -38108,10 +38108,10 @@
         <v>651.2438074691258</v>
       </c>
       <c r="O45" t="n">
-        <v>258.7731342023212</v>
+        <v>214.5819718346783</v>
       </c>
       <c r="P45" t="n">
-        <v>471.1553691773913</v>
+        <v>270.597221581984</v>
       </c>
       <c r="Q45" t="n">
         <v>261.7248167741956</v>
